--- a/data/interim/df_rev_wk.xlsx
+++ b/data/interim/df_rev_wk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L135"/>
+  <dimension ref="A1:L143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>942.800526695405</v>
+        <v>942.8005266954051</v>
       </c>
       <c r="G15" t="n">
         <v>873.3892523301605</v>
@@ -1093,13 +1093,13 @@
         <v>1.079473469796037</v>
       </c>
       <c r="I15" t="n">
-        <v>69.41127436524448</v>
+        <v>69.41127436524459</v>
       </c>
       <c r="J15" t="n">
         <v>817.6991594380626</v>
       </c>
       <c r="K15" t="n">
-        <v>125.1013672573424</v>
+        <v>125.1013672573425</v>
       </c>
       <c r="L15" t="n">
         <v>0.1529919235129389</v>
@@ -1128,43 +1128,43 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>604.3825826941468</v>
+        <v>721.8505409121243</v>
       </c>
       <c r="G16" t="n">
-        <v>616.0737471039425</v>
+        <v>737.0575579427078</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9810231088976702</v>
+        <v>0.9793679382746855</v>
       </c>
       <c r="I16" t="n">
-        <v>-11.69116440979576</v>
+        <v>-15.20701703058353</v>
       </c>
       <c r="J16" t="n">
-        <v>942.800526695405</v>
+        <v>942.8005266954051</v>
       </c>
       <c r="K16" t="n">
-        <v>-338.4179440012582</v>
+        <v>-220.9499857832808</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.3589496764362675</v>
+        <v>-0.2343549664293559</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>B2R000100</t>
+          <t>B1R000100</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Postpaid Revenue</t>
+          <t>Prepaid Revenue</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2023009</v>
+        <v>2023024</v>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1172,20 +1172,24 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1157.226110354372</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1165.611850834559</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.9928057178946982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-8.385740480186769</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>721.8505409121243</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-721.8505409121243</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1199,10 +1203,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2023010</v>
+        <v>2023009</v>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1210,26 +1214,20 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1385.478491326882</v>
+        <v>1157.226110354372</v>
       </c>
       <c r="G18" t="n">
-        <v>1394.608070218959</v>
+        <v>1165.611850834559</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9934536597865496</v>
+        <v>0.9928057178946982</v>
       </c>
       <c r="I18" t="n">
-        <v>-9.129578892076779</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1157.226110354372</v>
-      </c>
-      <c r="K18" t="n">
-        <v>228.2523809725094</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.1972409531121042</v>
-      </c>
+        <v>-8.385740480186769</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1243,10 +1241,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2023011</v>
+        <v>2023010</v>
       </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1254,25 +1252,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1777.409228394321</v>
+        <v>1385.478491326882</v>
       </c>
       <c r="G19" t="n">
-        <v>1805.279330150641</v>
+        <v>1394.608070218959</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9845618895143531</v>
+        <v>0.9934536597865496</v>
       </c>
       <c r="I19" t="n">
-        <v>-27.87010175632031</v>
+        <v>-9.129578892076779</v>
       </c>
       <c r="J19" t="n">
-        <v>1385.478491326882</v>
+        <v>1157.226110354372</v>
       </c>
       <c r="K19" t="n">
-        <v>391.9307370674394</v>
+        <v>228.2523809725094</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2828847503017422</v>
+        <v>0.1972409531121042</v>
       </c>
     </row>
     <row r="20">
@@ -1287,10 +1285,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2023012</v>
+        <v>2023011</v>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1298,25 +1296,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1370.317198947543</v>
+        <v>1777.409228394321</v>
       </c>
       <c r="G20" t="n">
-        <v>1374.44646385857</v>
+        <v>1805.279330150641</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9969956887957389</v>
+        <v>0.9845618895143531</v>
       </c>
       <c r="I20" t="n">
-        <v>-4.129264911027349</v>
+        <v>-27.87010175632031</v>
       </c>
       <c r="J20" t="n">
-        <v>1777.409228394321</v>
+        <v>1385.478491326882</v>
       </c>
       <c r="K20" t="n">
-        <v>-407.092029446778</v>
+        <v>391.9307370674394</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.2290367479494508</v>
+        <v>0.2828847503017422</v>
       </c>
     </row>
     <row r="21">
@@ -1331,10 +1329,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2023013</v>
+        <v>2023012</v>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1342,25 +1340,25 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1789.857712896892</v>
+        <v>1370.317198947543</v>
       </c>
       <c r="G21" t="n">
-        <v>1826.736029226553</v>
+        <v>1374.44646385857</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9798119072818222</v>
+        <v>0.9969956887957389</v>
       </c>
       <c r="I21" t="n">
-        <v>-36.87831632966163</v>
+        <v>-4.129264911027349</v>
       </c>
       <c r="J21" t="n">
-        <v>1370.317198947543</v>
+        <v>1777.409228394321</v>
       </c>
       <c r="K21" t="n">
-        <v>419.5405139493487</v>
+        <v>-407.092029446778</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3061630652169964</v>
+        <v>-0.2290367479494508</v>
       </c>
     </row>
     <row r="22">
@@ -1375,10 +1373,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2023014</v>
+        <v>2023013</v>
       </c>
       <c r="D22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1386,25 +1384,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>919.2141040592087</v>
+        <v>1789.857712896892</v>
       </c>
       <c r="G22" t="n">
-        <v>920.2942730676502</v>
+        <v>1826.736029226553</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9988262786805779</v>
+        <v>0.9798119072818222</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.080169008441544</v>
+        <v>-36.87831632966163</v>
       </c>
       <c r="J22" t="n">
-        <v>1789.857712896892</v>
+        <v>1370.317198947543</v>
       </c>
       <c r="K22" t="n">
-        <v>-870.6436088376831</v>
+        <v>419.5405139493487</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.4864317440231285</v>
+        <v>0.3061630652169964</v>
       </c>
     </row>
     <row r="23">
@@ -1419,10 +1417,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2023015</v>
+        <v>2023014</v>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1430,25 +1428,25 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1941.96571953482</v>
+        <v>919.2141040592087</v>
       </c>
       <c r="G23" t="n">
-        <v>1918.275167297204</v>
+        <v>920.2942730676502</v>
       </c>
       <c r="H23" t="n">
-        <v>1.012349923849036</v>
+        <v>0.9988262786805779</v>
       </c>
       <c r="I23" t="n">
-        <v>23.69055223761643</v>
+        <v>-1.080169008441544</v>
       </c>
       <c r="J23" t="n">
-        <v>919.2141040592087</v>
+        <v>1789.857712896892</v>
       </c>
       <c r="K23" t="n">
-        <v>1022.751615475612</v>
+        <v>-870.6436088376831</v>
       </c>
       <c r="L23" t="n">
-        <v>1.112636991707575</v>
+        <v>-0.4864317440231285</v>
       </c>
     </row>
     <row r="24">
@@ -1463,10 +1461,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2023016</v>
+        <v>2023015</v>
       </c>
       <c r="D24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1474,25 +1472,25 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1356.067160331951</v>
+        <v>1941.96571953482</v>
       </c>
       <c r="G24" t="n">
-        <v>1361.864981391912</v>
+        <v>1918.275167297204</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9957427343098028</v>
+        <v>1.012349923849036</v>
       </c>
       <c r="I24" t="n">
-        <v>-5.797821059960825</v>
+        <v>23.69055223761643</v>
       </c>
       <c r="J24" t="n">
-        <v>1941.96571953482</v>
+        <v>919.2141040592087</v>
       </c>
       <c r="K24" t="n">
-        <v>-585.8985592028696</v>
+        <v>1022.751615475612</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.3017038628999157</v>
+        <v>1.112636991707575</v>
       </c>
     </row>
     <row r="25">
@@ -1507,10 +1505,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2023017</v>
+        <v>2023016</v>
       </c>
       <c r="D25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1518,25 +1516,25 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1559.719556901175</v>
+        <v>1356.067160331951</v>
       </c>
       <c r="G25" t="n">
-        <v>1567.998720927997</v>
+        <v>1361.864981391912</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9947199165941142</v>
+        <v>0.9957427343098028</v>
       </c>
       <c r="I25" t="n">
-        <v>-8.279164026822173</v>
+        <v>-5.797821059960825</v>
       </c>
       <c r="J25" t="n">
-        <v>1356.067160331951</v>
+        <v>1941.96571953482</v>
       </c>
       <c r="K25" t="n">
-        <v>203.652396569224</v>
+        <v>-585.8985592028696</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1501786950724271</v>
+        <v>-0.3017038628999157</v>
       </c>
     </row>
     <row r="26">
@@ -1551,10 +1549,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2023018</v>
+        <v>2023017</v>
       </c>
       <c r="D26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1562,25 +1560,25 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1598.888410404407</v>
+        <v>1559.719556901175</v>
       </c>
       <c r="G26" t="n">
-        <v>1601.325380750447</v>
+        <v>1567.998720927997</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9984781541744512</v>
+        <v>0.9947199165941142</v>
       </c>
       <c r="I26" t="n">
-        <v>-2.436970346040425</v>
+        <v>-8.279164026822173</v>
       </c>
       <c r="J26" t="n">
-        <v>1559.719556901175</v>
+        <v>1356.067160331951</v>
       </c>
       <c r="K26" t="n">
-        <v>39.16885350323173</v>
+        <v>203.652396569224</v>
       </c>
       <c r="L26" t="n">
-        <v>0.02511275397549784</v>
+        <v>0.1501786950724271</v>
       </c>
     </row>
     <row r="27">
@@ -1595,10 +1593,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2023019</v>
+        <v>2023018</v>
       </c>
       <c r="D27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1606,25 +1604,25 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1550.12587379361</v>
+        <v>1598.888410404407</v>
       </c>
       <c r="G27" t="n">
-        <v>1552.693141354068</v>
+        <v>1601.325380750447</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9983465711980801</v>
+        <v>0.9984781541744512</v>
       </c>
       <c r="I27" t="n">
-        <v>-2.567267560458276</v>
+        <v>-2.436970346040425</v>
       </c>
       <c r="J27" t="n">
-        <v>1598.888410404407</v>
+        <v>1559.719556901175</v>
       </c>
       <c r="K27" t="n">
-        <v>-48.76253661079659</v>
+        <v>39.16885350323173</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.03049777351157557</v>
+        <v>0.02511275397549784</v>
       </c>
     </row>
     <row r="28">
@@ -1639,10 +1637,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2023020</v>
+        <v>2023019</v>
       </c>
       <c r="D28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1650,25 +1648,25 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1365.360050318554</v>
+        <v>1550.12587379361</v>
       </c>
       <c r="G28" t="n">
-        <v>1372.144067604463</v>
+        <v>1552.693141354068</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9950559001448347</v>
+        <v>0.9983465711980801</v>
       </c>
       <c r="I28" t="n">
-        <v>-6.784017285909158</v>
+        <v>-2.567267560458276</v>
       </c>
       <c r="J28" t="n">
-        <v>1550.12587379361</v>
+        <v>1598.888410404407</v>
       </c>
       <c r="K28" t="n">
-        <v>-184.7658234750563</v>
+        <v>-48.76253661079659</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.1191940774608713</v>
+        <v>-0.03049777351157557</v>
       </c>
     </row>
     <row r="29">
@@ -1683,10 +1681,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2023021</v>
+        <v>2023020</v>
       </c>
       <c r="D29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1694,25 +1692,25 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1749.401711545147</v>
+        <v>1365.360050318554</v>
       </c>
       <c r="G29" t="n">
-        <v>1774.146578249228</v>
+        <v>1372.144067604463</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9860525240656839</v>
+        <v>0.9950559001448347</v>
       </c>
       <c r="I29" t="n">
-        <v>-24.74486670408032</v>
+        <v>-6.784017285909158</v>
       </c>
       <c r="J29" t="n">
-        <v>1365.360050318554</v>
+        <v>1550.12587379361</v>
       </c>
       <c r="K29" t="n">
-        <v>384.0416612265938</v>
+        <v>-184.7658234750563</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2812750095749414</v>
+        <v>-0.1191940774608713</v>
       </c>
     </row>
     <row r="30">
@@ -1727,10 +1725,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2023022</v>
+        <v>2023021</v>
       </c>
       <c r="D30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1738,25 +1736,25 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1364.0483157725</v>
+        <v>1749.401711545147</v>
       </c>
       <c r="G30" t="n">
-        <v>1421.009092698158</v>
+        <v>1774.146578249228</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9599152621764697</v>
+        <v>0.9860525240656839</v>
       </c>
       <c r="I30" t="n">
-        <v>-56.96077692565837</v>
+        <v>-24.74486670408032</v>
       </c>
       <c r="J30" t="n">
-        <v>1749.401711545147</v>
+        <v>1365.360050318554</v>
       </c>
       <c r="K30" t="n">
-        <v>-385.3533957726479</v>
+        <v>384.0416612265938</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.2202772486327838</v>
+        <v>0.2812750095749414</v>
       </c>
     </row>
     <row r="31">
@@ -1771,10 +1769,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2023023</v>
+        <v>2023022</v>
       </c>
       <c r="D31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1782,43 +1780,43 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1269.929023224</v>
+        <v>1364.0503345625</v>
       </c>
       <c r="G31" t="n">
-        <v>1310.078957539031</v>
+        <v>1421.009092698158</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9693530423613148</v>
+        <v>0.9599166828499972</v>
       </c>
       <c r="I31" t="n">
-        <v>-40.14993431503149</v>
+        <v>-56.95875813565794</v>
       </c>
       <c r="J31" t="n">
-        <v>1364.0483157725</v>
+        <v>1749.401711545147</v>
       </c>
       <c r="K31" t="n">
-        <v>-94.11929254849997</v>
+        <v>-385.3513769826475</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0689999697666116</v>
+        <v>-0.2202760946439731</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DB1R000100</t>
+          <t>B2R000100</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Prepaid Revenue : DTAC</t>
+          <t>Postpaid Revenue</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2023009</v>
+        <v>2023023</v>
       </c>
       <c r="D32" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1826,37 +1824,43 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>297.0318503042</v>
+        <v>1269.929023224</v>
       </c>
       <c r="G32" t="n">
-        <v>296.7943339006</v>
+        <v>1310.078957539031</v>
       </c>
       <c r="H32" t="n">
-        <v>1.00080027270224</v>
+        <v>0.9693530423613151</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2375164036000115</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+        <v>-40.14993431503103</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1364.0503345625</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-94.12131133849994</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.06900134764358823</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DB1R000100</t>
+          <t>B2R000100</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Prepaid Revenue : DTAC</t>
+          <t>Postpaid Revenue</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2023010</v>
+        <v>2023024</v>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1864,25 +1868,23 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>368.0838481216</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>377.502569853225</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.9750499136064503</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>-9.418721731624998</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>297.0318503042</v>
+        <v>1269.929023224</v>
       </c>
       <c r="K33" t="n">
-        <v>71.05199781739998</v>
+        <v>-1269.929023224</v>
       </c>
       <c r="L33" t="n">
-        <v>0.239206663341434</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34">
@@ -1897,10 +1899,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2023011</v>
+        <v>2023009</v>
       </c>
       <c r="D34" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1908,26 +1910,20 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>343.8808782474</v>
+        <v>297.0318503042</v>
       </c>
       <c r="G34" t="n">
-        <v>355.352272829049</v>
+        <v>296.7943339006</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9677182462058781</v>
+        <v>1.00080027270224</v>
       </c>
       <c r="I34" t="n">
-        <v>-11.47139458164901</v>
-      </c>
-      <c r="J34" t="n">
-        <v>368.0838481216</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-24.20296987419999</v>
-      </c>
-      <c r="L34" t="n">
-        <v>-0.06575395795743888</v>
-      </c>
+        <v>0.2375164036000115</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1941,10 +1937,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2023012</v>
+        <v>2023010</v>
       </c>
       <c r="D35" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1952,25 +1948,25 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>343.4536927131</v>
+        <v>368.0838481216</v>
       </c>
       <c r="G35" t="n">
-        <v>348.182012313295</v>
+        <v>377.502569853225</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9864199773883194</v>
+        <v>0.9750499136064503</v>
       </c>
       <c r="I35" t="n">
-        <v>-4.728319600194993</v>
+        <v>-9.418721731624998</v>
       </c>
       <c r="J35" t="n">
-        <v>343.8808782474</v>
+        <v>297.0318503042</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.4271855343000084</v>
+        <v>71.05199781739998</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.001242248584676142</v>
+        <v>0.239206663341434</v>
       </c>
     </row>
     <row r="36">
@@ -1985,10 +1981,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2023013</v>
+        <v>2023011</v>
       </c>
       <c r="D36" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1996,25 +1992,25 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>386.9051693005</v>
+        <v>343.8808782474</v>
       </c>
       <c r="G36" t="n">
-        <v>395.819206786766</v>
+        <v>355.352272829049</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9774795226370403</v>
+        <v>0.9677182462058781</v>
       </c>
       <c r="I36" t="n">
-        <v>-8.914037486266011</v>
+        <v>-11.47139458164901</v>
       </c>
       <c r="J36" t="n">
-        <v>343.4536927131</v>
+        <v>368.0838481216</v>
       </c>
       <c r="K36" t="n">
-        <v>43.45147658740001</v>
+        <v>-24.20296987419999</v>
       </c>
       <c r="L36" t="n">
-        <v>0.1265133481144332</v>
+        <v>-0.06575395795743888</v>
       </c>
     </row>
     <row r="37">
@@ -2029,10 +2025,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2023014</v>
+        <v>2023012</v>
       </c>
       <c r="D37" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2040,25 +2036,25 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>372.6567615431</v>
+        <v>343.4536927131</v>
       </c>
       <c r="G37" t="n">
-        <v>389.32815786639</v>
+        <v>348.182012313295</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9571790635060839</v>
+        <v>0.9864199773883194</v>
       </c>
       <c r="I37" t="n">
-        <v>-16.67139632329003</v>
+        <v>-4.728319600194993</v>
       </c>
       <c r="J37" t="n">
-        <v>386.9051693005</v>
+        <v>343.8808782474</v>
       </c>
       <c r="K37" t="n">
-        <v>-14.2484077574</v>
+        <v>-0.4271855343000084</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.03682661511904894</v>
+        <v>-0.001242248584676142</v>
       </c>
     </row>
     <row r="38">
@@ -2073,10 +2069,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2023015</v>
+        <v>2023013</v>
       </c>
       <c r="D38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2084,25 +2080,25 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>350.048194342</v>
+        <v>386.9051693005</v>
       </c>
       <c r="G38" t="n">
-        <v>365.593782135514</v>
+        <v>395.819206786766</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9574785224663592</v>
+        <v>0.9774795226370403</v>
       </c>
       <c r="I38" t="n">
-        <v>-15.54558779351402</v>
+        <v>-8.914037486266011</v>
       </c>
       <c r="J38" t="n">
-        <v>372.6567615431</v>
+        <v>343.4536927131</v>
       </c>
       <c r="K38" t="n">
-        <v>-22.60856720110002</v>
+        <v>43.45147658740001</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0606686085809427</v>
+        <v>0.1265133481144332</v>
       </c>
     </row>
     <row r="39">
@@ -2117,10 +2113,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2023016</v>
+        <v>2023014</v>
       </c>
       <c r="D39" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2128,25 +2124,25 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>349.4193012388</v>
+        <v>372.6567615431</v>
       </c>
       <c r="G39" t="n">
-        <v>347.852841051342</v>
+        <v>389.32815786639</v>
       </c>
       <c r="H39" t="n">
-        <v>1.004503226659652</v>
+        <v>0.9571790635060839</v>
       </c>
       <c r="I39" t="n">
-        <v>1.566460187458006</v>
+        <v>-16.67139632329003</v>
       </c>
       <c r="J39" t="n">
-        <v>350.048194342</v>
+        <v>386.9051693005</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.6288931031999709</v>
+        <v>-14.2484077574</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.001796590050641811</v>
+        <v>-0.03682661511904894</v>
       </c>
     </row>
     <row r="40">
@@ -2161,10 +2157,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2023017</v>
+        <v>2023015</v>
       </c>
       <c r="D40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2172,25 +2168,25 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>378.3371743582</v>
+        <v>350.048194342</v>
       </c>
       <c r="G40" t="n">
-        <v>369.253497855662</v>
+        <v>365.593782135514</v>
       </c>
       <c r="H40" t="n">
-        <v>1.024600109559663</v>
+        <v>0.9574785224663592</v>
       </c>
       <c r="I40" t="n">
-        <v>9.083676502538026</v>
+        <v>-15.54558779351402</v>
       </c>
       <c r="J40" t="n">
-        <v>349.4193012388</v>
+        <v>372.6567615431</v>
       </c>
       <c r="K40" t="n">
-        <v>28.91787311939999</v>
+        <v>-22.60856720110002</v>
       </c>
       <c r="L40" t="n">
-        <v>0.08275980467271604</v>
+        <v>-0.0606686085809427</v>
       </c>
     </row>
     <row r="41">
@@ -2205,10 +2201,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2023018</v>
+        <v>2023016</v>
       </c>
       <c r="D41" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2216,25 +2212,25 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>389.1717263104</v>
+        <v>349.4193012388</v>
       </c>
       <c r="G41" t="n">
-        <v>397.992973379586</v>
+        <v>347.852841051342</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9778356713328888</v>
+        <v>1.004503226659652</v>
       </c>
       <c r="I41" t="n">
-        <v>-8.821247069185972</v>
+        <v>1.566460187458006</v>
       </c>
       <c r="J41" t="n">
-        <v>378.3371743582</v>
+        <v>350.048194342</v>
       </c>
       <c r="K41" t="n">
-        <v>10.8345519522</v>
+        <v>-0.6288931031999709</v>
       </c>
       <c r="L41" t="n">
-        <v>0.02863729151273442</v>
+        <v>-0.001796590050641811</v>
       </c>
     </row>
     <row r="42">
@@ -2249,10 +2245,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2023019</v>
+        <v>2023017</v>
       </c>
       <c r="D42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2260,25 +2256,25 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>351.1186159892</v>
+        <v>378.3371743582</v>
       </c>
       <c r="G42" t="n">
-        <v>356.152064585771</v>
+        <v>369.253497855662</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9858671362682533</v>
+        <v>1.024600109559663</v>
       </c>
       <c r="I42" t="n">
-        <v>-5.033448596570963</v>
+        <v>9.083676502538026</v>
       </c>
       <c r="J42" t="n">
-        <v>389.1717263104</v>
+        <v>349.4193012388</v>
       </c>
       <c r="K42" t="n">
-        <v>-38.05311032119999</v>
+        <v>28.91787311939999</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.09777974027550285</v>
+        <v>0.08275980467271604</v>
       </c>
     </row>
     <row r="43">
@@ -2293,10 +2289,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2023020</v>
+        <v>2023018</v>
       </c>
       <c r="D43" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2304,25 +2300,25 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>349.6332651374</v>
+        <v>389.1717263104</v>
       </c>
       <c r="G43" t="n">
-        <v>355.49494791423</v>
+        <v>397.992973379586</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9835112065270636</v>
+        <v>0.9778356713328888</v>
       </c>
       <c r="I43" t="n">
-        <v>-5.861682776830037</v>
+        <v>-8.821247069185972</v>
       </c>
       <c r="J43" t="n">
-        <v>351.1186159892</v>
+        <v>378.3371743582</v>
       </c>
       <c r="K43" t="n">
-        <v>-1.485350851800035</v>
+        <v>10.8345519522</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.004230339219170709</v>
+        <v>0.02863729151273442</v>
       </c>
     </row>
     <row r="44">
@@ -2337,10 +2333,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2023021</v>
+        <v>2023019</v>
       </c>
       <c r="D44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2348,25 +2344,25 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>350.0004952829</v>
+        <v>351.1186159892</v>
       </c>
       <c r="G44" t="n">
-        <v>350.425058077599</v>
+        <v>356.152064585771</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9987884348310359</v>
+        <v>0.9858671362682533</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.4245627946990567</v>
+        <v>-5.033448596570963</v>
       </c>
       <c r="J44" t="n">
-        <v>349.6332651374</v>
+        <v>389.1717263104</v>
       </c>
       <c r="K44" t="n">
-        <v>0.3672301455000024</v>
+        <v>-38.05311032119999</v>
       </c>
       <c r="L44" t="n">
-        <v>0.001050329537024108</v>
+        <v>-0.09777974027550285</v>
       </c>
     </row>
     <row r="45">
@@ -2381,10 +2377,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2023022</v>
+        <v>2023020</v>
       </c>
       <c r="D45" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2392,25 +2388,25 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>402.4149829379</v>
+        <v>349.6332651374</v>
       </c>
       <c r="G45" t="n">
-        <v>399.375159409795</v>
+        <v>355.49494791423</v>
       </c>
       <c r="H45" t="n">
-        <v>1.007611448675469</v>
+        <v>0.9835112065270636</v>
       </c>
       <c r="I45" t="n">
-        <v>3.039823528104989</v>
+        <v>-5.861682776830037</v>
       </c>
       <c r="J45" t="n">
-        <v>350.0004952829</v>
+        <v>351.1186159892</v>
       </c>
       <c r="K45" t="n">
-        <v>52.41448765500002</v>
+        <v>-1.485350851800035</v>
       </c>
       <c r="L45" t="n">
-        <v>0.1497554670962229</v>
+        <v>-0.004230339219170709</v>
       </c>
     </row>
     <row r="46">
@@ -2425,10 +2421,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2023023</v>
+        <v>2023021</v>
       </c>
       <c r="D46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2436,43 +2432,43 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>312.441821965</v>
+        <v>350.0004952829</v>
       </c>
       <c r="G46" t="n">
-        <v>324.485267990708</v>
+        <v>350.425058077599</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9628844597467123</v>
+        <v>0.9987884348310359</v>
       </c>
       <c r="I46" t="n">
-        <v>-12.04344602570796</v>
+        <v>-0.4245627946990567</v>
       </c>
       <c r="J46" t="n">
-        <v>402.4149829379</v>
+        <v>349.6332651374</v>
       </c>
       <c r="K46" t="n">
-        <v>-89.97316097289996</v>
+        <v>0.3672301455000024</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.2235830294290619</v>
+        <v>0.001050329537024108</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DB2R000100</t>
+          <t>DB1R000100</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Postpaid Revenue : DTAC</t>
+          <t>Prepaid Revenue : DTAC</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2023009</v>
+        <v>2023022</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2480,37 +2476,43 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>557.0588703549</v>
+        <v>402.4149829379</v>
       </c>
       <c r="G47" t="n">
-        <v>555.797811982323</v>
+        <v>399.375159409795</v>
       </c>
       <c r="H47" t="n">
-        <v>1.002268915683708</v>
+        <v>1.007611448675469</v>
       </c>
       <c r="I47" t="n">
-        <v>1.261058372577054</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+        <v>3.039823528104989</v>
+      </c>
+      <c r="J47" t="n">
+        <v>350.0004952829</v>
+      </c>
+      <c r="K47" t="n">
+        <v>52.41448765500002</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.1497554670962229</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DB2R000100</t>
+          <t>DB1R000100</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Postpaid Revenue : DTAC</t>
+          <t>Prepaid Revenue : DTAC</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2023010</v>
+        <v>2023023</v>
       </c>
       <c r="D48" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2518,43 +2520,43 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>660.4627668555</v>
+        <v>361.1587248191</v>
       </c>
       <c r="G48" t="n">
-        <v>669.0075218923751</v>
+        <v>375.195390391147</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9872277145513924</v>
+        <v>0.9625883847948837</v>
       </c>
       <c r="I48" t="n">
-        <v>-8.544755036875017</v>
+        <v>-14.03666557204696</v>
       </c>
       <c r="J48" t="n">
-        <v>557.0588703549</v>
+        <v>402.4149829379</v>
       </c>
       <c r="K48" t="n">
-        <v>103.4038965006</v>
+        <v>-41.25625811879996</v>
       </c>
       <c r="L48" t="n">
-        <v>0.1856247194030352</v>
+        <v>-0.1025216750569313</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DB2R000100</t>
+          <t>DB1R000100</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Postpaid Revenue : DTAC</t>
+          <t>Prepaid Revenue : DTAC</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2023011</v>
+        <v>2023024</v>
       </c>
       <c r="D49" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2562,25 +2564,23 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>627.1613506962</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>646.728813442359</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.969743944696067</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>-19.56746274615898</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>660.4627668555</v>
+        <v>361.1587248191</v>
       </c>
       <c r="K49" t="n">
-        <v>-33.30141615930006</v>
+        <v>-361.1587248191</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.05042133762944723</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50">
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2023012</v>
+        <v>2023009</v>
       </c>
       <c r="D50" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2606,26 +2606,20 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>634.3624087849</v>
+        <v>557.0588703549</v>
       </c>
       <c r="G50" t="n">
-        <v>642.024893601319</v>
+        <v>555.797811982323</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9880651281705952</v>
+        <v>1.002268915683708</v>
       </c>
       <c r="I50" t="n">
-        <v>-7.66248481641901</v>
-      </c>
-      <c r="J50" t="n">
-        <v>627.1613506962</v>
-      </c>
-      <c r="K50" t="n">
-        <v>7.201058088700051</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.0114819863830995</v>
-      </c>
+        <v>1.261058372577054</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2639,10 +2633,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2023013</v>
+        <v>2023010</v>
       </c>
       <c r="D51" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2650,25 +2644,25 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>762.2079517857001</v>
+        <v>660.4627668555</v>
       </c>
       <c r="G51" t="n">
-        <v>809.657262402535</v>
+        <v>669.0075218923751</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9413958068182624</v>
+        <v>0.9872277145513924</v>
       </c>
       <c r="I51" t="n">
-        <v>-47.44931061683496</v>
+        <v>-8.544755036875017</v>
       </c>
       <c r="J51" t="n">
-        <v>634.3624087849</v>
+        <v>557.0588703549</v>
       </c>
       <c r="K51" t="n">
-        <v>127.8455430008</v>
+        <v>103.4038965006</v>
       </c>
       <c r="L51" t="n">
-        <v>0.2015339200910153</v>
+        <v>0.1856247194030352</v>
       </c>
     </row>
     <row r="52">
@@ -2683,10 +2677,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2023014</v>
+        <v>2023011</v>
       </c>
       <c r="D52" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2694,25 +2688,25 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>676.507609205</v>
+        <v>627.1613506962</v>
       </c>
       <c r="G52" t="n">
-        <v>685.442667366028</v>
+        <v>646.728813442359</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9869645433725872</v>
+        <v>0.969743944696067</v>
       </c>
       <c r="I52" t="n">
-        <v>-8.935058161027996</v>
+        <v>-19.56746274615898</v>
       </c>
       <c r="J52" t="n">
-        <v>762.2079517857001</v>
+        <v>660.4627668555</v>
       </c>
       <c r="K52" t="n">
-        <v>-85.70034258070007</v>
+        <v>-33.30141615930006</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.1124369568434984</v>
+        <v>-0.05042133762944723</v>
       </c>
     </row>
     <row r="53">
@@ -2727,10 +2721,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2023015</v>
+        <v>2023012</v>
       </c>
       <c r="D53" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2738,25 +2732,25 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>639.1386108553</v>
+        <v>634.3624087849</v>
       </c>
       <c r="G53" t="n">
-        <v>636.479799742113</v>
+        <v>642.024893601319</v>
       </c>
       <c r="H53" t="n">
-        <v>1.004177369202077</v>
+        <v>0.9880651281705952</v>
       </c>
       <c r="I53" t="n">
-        <v>2.658811113187085</v>
+        <v>-7.66248481641901</v>
       </c>
       <c r="J53" t="n">
-        <v>676.507609205</v>
+        <v>627.1613506962</v>
       </c>
       <c r="K53" t="n">
-        <v>-37.36899834969995</v>
+        <v>7.201058088700051</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.05523810499872162</v>
+        <v>0.0114819863830995</v>
       </c>
     </row>
     <row r="54">
@@ -2771,10 +2765,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2023016</v>
+        <v>2023013</v>
       </c>
       <c r="D54" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2782,25 +2776,25 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>616.784322894</v>
+        <v>762.2079517857001</v>
       </c>
       <c r="G54" t="n">
-        <v>624.802511750957</v>
+        <v>809.657262402535</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9871668427924741</v>
+        <v>0.9413958068182624</v>
       </c>
       <c r="I54" t="n">
-        <v>-8.018188856957067</v>
+        <v>-47.44931061683496</v>
       </c>
       <c r="J54" t="n">
-        <v>639.1386108553</v>
+        <v>634.3624087849</v>
       </c>
       <c r="K54" t="n">
-        <v>-22.35428796130009</v>
+        <v>127.8455430008</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.03497564938438846</v>
+        <v>0.2015339200910153</v>
       </c>
     </row>
     <row r="55">
@@ -2815,10 +2809,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2023017</v>
+        <v>2023014</v>
       </c>
       <c r="D55" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2826,25 +2820,25 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>770.7590083931</v>
+        <v>676.507609205</v>
       </c>
       <c r="G55" t="n">
-        <v>791.2237583440359</v>
+        <v>685.442667366028</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9741353192000113</v>
+        <v>0.9869645433725872</v>
       </c>
       <c r="I55" t="n">
-        <v>-20.46474995093592</v>
+        <v>-8.935058161027996</v>
       </c>
       <c r="J55" t="n">
-        <v>616.784322894</v>
+        <v>762.2079517857001</v>
       </c>
       <c r="K55" t="n">
-        <v>153.9746854991</v>
+        <v>-85.70034258070007</v>
       </c>
       <c r="L55" t="n">
-        <v>0.2496410492028054</v>
+        <v>-0.1124369568434984</v>
       </c>
     </row>
     <row r="56">
@@ -2859,10 +2853,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2023018</v>
+        <v>2023015</v>
       </c>
       <c r="D56" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2870,25 +2864,25 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>740.5988393717</v>
+        <v>639.1386108553</v>
       </c>
       <c r="G56" t="n">
-        <v>752.673839140372</v>
+        <v>636.479799742113</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9839571948156683</v>
+        <v>1.004177369202077</v>
       </c>
       <c r="I56" t="n">
-        <v>-12.074999768672</v>
+        <v>2.658811113187085</v>
       </c>
       <c r="J56" t="n">
-        <v>770.7590083931</v>
+        <v>676.507609205</v>
       </c>
       <c r="K56" t="n">
-        <v>-30.16016902139995</v>
+        <v>-37.36899834969995</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.03913047877867648</v>
+        <v>-0.05523810499872162</v>
       </c>
     </row>
     <row r="57">
@@ -2903,10 +2897,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2023019</v>
+        <v>2023016</v>
       </c>
       <c r="D57" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2914,25 +2908,25 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>642.3405727083</v>
+        <v>616.784322894</v>
       </c>
       <c r="G57" t="n">
-        <v>646.598479563531</v>
+        <v>624.802511750957</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9934149135981495</v>
+        <v>0.9871668427924741</v>
       </c>
       <c r="I57" t="n">
-        <v>-4.257906855230999</v>
+        <v>-8.018188856957067</v>
       </c>
       <c r="J57" t="n">
-        <v>740.5988393717</v>
+        <v>639.1386108553</v>
       </c>
       <c r="K57" t="n">
-        <v>-98.25826666340004</v>
+        <v>-22.35428796130009</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.1326740759501583</v>
+        <v>-0.03497564938438846</v>
       </c>
     </row>
     <row r="58">
@@ -2947,10 +2941,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2023020</v>
+        <v>2023017</v>
       </c>
       <c r="D58" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2958,25 +2952,25 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>618.9928877589</v>
+        <v>770.7590083931</v>
       </c>
       <c r="G58" t="n">
-        <v>619.240495149807</v>
+        <v>791.2237583440359</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9996001434130255</v>
+        <v>0.9741353192000113</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.2476073909069783</v>
+        <v>-20.46474995093592</v>
       </c>
       <c r="J58" t="n">
-        <v>642.3405727083</v>
+        <v>616.784322894</v>
       </c>
       <c r="K58" t="n">
-        <v>-23.34768494939999</v>
+        <v>153.9746854991</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.03634782845953377</v>
+        <v>0.2496410492028054</v>
       </c>
     </row>
     <row r="59">
@@ -2991,10 +2985,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2023021</v>
+        <v>2023018</v>
       </c>
       <c r="D59" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3002,25 +2996,25 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>639.6065301965</v>
+        <v>740.5988393717</v>
       </c>
       <c r="G59" t="n">
-        <v>647.366692162679</v>
+        <v>752.673839140372</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9880127259246929</v>
+        <v>0.9839571948156683</v>
       </c>
       <c r="I59" t="n">
-        <v>-7.760161966178998</v>
+        <v>-12.074999768672</v>
       </c>
       <c r="J59" t="n">
-        <v>618.9928877589</v>
+        <v>770.7590083931</v>
       </c>
       <c r="K59" t="n">
-        <v>20.61364243759999</v>
+        <v>-30.16016902139995</v>
       </c>
       <c r="L59" t="n">
-        <v>0.0333019051515</v>
+        <v>-0.03913047877867648</v>
       </c>
     </row>
     <row r="60">
@@ -3035,10 +3029,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2023022</v>
+        <v>2023019</v>
       </c>
       <c r="D60" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3046,25 +3040,25 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>764.9675752125</v>
+        <v>642.3405727083</v>
       </c>
       <c r="G60" t="n">
-        <v>788.743784778001</v>
+        <v>646.598479563531</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9698555982001266</v>
+        <v>0.9934149135981495</v>
       </c>
       <c r="I60" t="n">
-        <v>-23.77620956550095</v>
+        <v>-4.257906855230999</v>
       </c>
       <c r="J60" t="n">
-        <v>639.6065301965</v>
+        <v>740.5988393717</v>
       </c>
       <c r="K60" t="n">
-        <v>125.361045016</v>
+        <v>-98.25826666340004</v>
       </c>
       <c r="L60" t="n">
-        <v>0.1959971312010942</v>
+        <v>-0.1326740759501583</v>
       </c>
     </row>
     <row r="61">
@@ -3079,10 +3073,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2023023</v>
+        <v>2023020</v>
       </c>
       <c r="D61" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3090,43 +3084,43 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>574.025242374</v>
+        <v>618.9928877589</v>
       </c>
       <c r="G61" t="n">
-        <v>578.5519103046199</v>
+        <v>619.240495149807</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9921758655532974</v>
+        <v>0.9996001434130255</v>
       </c>
       <c r="I61" t="n">
-        <v>-4.526667930619965</v>
+        <v>-0.2476073909069783</v>
       </c>
       <c r="J61" t="n">
-        <v>764.9675752125</v>
+        <v>642.3405727083</v>
       </c>
       <c r="K61" t="n">
-        <v>-190.9423328385001</v>
+        <v>-23.34768494939999</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.2496084004416244</v>
+        <v>-0.03634782845953377</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TB1R000100</t>
+          <t>DB2R000100</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Prepaid Revenue : TMH</t>
+          <t>Postpaid Revenue : DTAC</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2023009</v>
+        <v>2023021</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3134,37 +3128,43 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>372.8691581920555</v>
+        <v>639.6065301965</v>
       </c>
       <c r="G62" t="n">
-        <v>329.4250006306453</v>
+        <v>647.366692162679</v>
       </c>
       <c r="H62" t="n">
-        <v>1.13187875078771</v>
+        <v>0.9880127259246929</v>
       </c>
       <c r="I62" t="n">
-        <v>43.44415756141018</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+        <v>-7.760161966178998</v>
+      </c>
+      <c r="J62" t="n">
+        <v>618.9928877589</v>
+      </c>
+      <c r="K62" t="n">
+        <v>20.61364243759999</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.0333019051515</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TB1R000100</t>
+          <t>DB2R000100</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Prepaid Revenue : TMH</t>
+          <t>Postpaid Revenue : DTAC</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2023010</v>
+        <v>2023022</v>
       </c>
       <c r="D63" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3172,43 +3172,43 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>451.0378097518638</v>
+        <v>764.9675752125</v>
       </c>
       <c r="G63" t="n">
-        <v>461.1950008829034</v>
+        <v>788.743784778001</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9779763633352597</v>
+        <v>0.9698555982001266</v>
       </c>
       <c r="I63" t="n">
-        <v>-10.15719113103961</v>
+        <v>-23.77620956550095</v>
       </c>
       <c r="J63" t="n">
-        <v>372.8691581920555</v>
+        <v>639.6065301965</v>
       </c>
       <c r="K63" t="n">
-        <v>78.16865155980832</v>
+        <v>125.361045016</v>
       </c>
       <c r="L63" t="n">
-        <v>0.2096409688021064</v>
+        <v>0.1959971312010942</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TB1R000100</t>
+          <t>DB2R000100</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Prepaid Revenue : TMH</t>
+          <t>Postpaid Revenue : DTAC</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2023011</v>
+        <v>2023023</v>
       </c>
       <c r="D64" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3216,43 +3216,43 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>432.920144412982</v>
+        <v>664.6254195898</v>
       </c>
       <c r="G64" t="n">
-        <v>461.1950008829034</v>
+        <v>674.960972897999</v>
       </c>
       <c r="H64" t="n">
-        <v>0.9386921878689221</v>
+        <v>0.9846871838177214</v>
       </c>
       <c r="I64" t="n">
-        <v>-28.27485646992136</v>
+        <v>-10.335553308199</v>
       </c>
       <c r="J64" t="n">
-        <v>451.0378097518638</v>
+        <v>764.9675752125</v>
       </c>
       <c r="K64" t="n">
-        <v>-18.11766533888175</v>
+        <v>-100.3421556227</v>
       </c>
       <c r="L64" t="n">
-        <v>-0.04016883939031424</v>
+        <v>-0.1311717762610082</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TB1R000100</t>
+          <t>DB2R000100</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Prepaid Revenue : TMH</t>
+          <t>Postpaid Revenue : DTAC</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2023012</v>
+        <v>2023024</v>
       </c>
       <c r="D65" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3260,25 +3260,23 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>445.9206355867207</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>461.1950008829034</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.9668808957882421</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
-        <v>-15.27436529618268</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>432.920144412982</v>
+        <v>664.6254195898</v>
       </c>
       <c r="K65" t="n">
-        <v>13.00049117373868</v>
+        <v>-664.6254195898</v>
       </c>
       <c r="L65" t="n">
-        <v>0.03002976724810691</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66">
@@ -3293,10 +3291,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2023013</v>
+        <v>2023009</v>
       </c>
       <c r="D66" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3304,26 +3302,20 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>515.3276392503875</v>
+        <v>372.8691581920555</v>
       </c>
       <c r="G66" t="n">
-        <v>466.031699011312</v>
+        <v>329.4250006306453</v>
       </c>
       <c r="H66" t="n">
-        <v>1.105778084073803</v>
+        <v>1.13187875078771</v>
       </c>
       <c r="I66" t="n">
-        <v>49.29594023907555</v>
-      </c>
-      <c r="J66" t="n">
-        <v>445.9206355867207</v>
-      </c>
-      <c r="K66" t="n">
-        <v>69.40700366366679</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0.1556487816993364</v>
-      </c>
+        <v>43.44415756141018</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3337,10 +3329,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2023014</v>
+        <v>2023010</v>
       </c>
       <c r="D67" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3348,25 +3340,25 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>473.1160616677764</v>
+        <v>451.0378097518638</v>
       </c>
       <c r="G67" t="n">
-        <v>478.1234443323332</v>
+        <v>461.1950008829034</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9895270087172794</v>
+        <v>0.9779763633352597</v>
       </c>
       <c r="I67" t="n">
-        <v>-5.007382664556872</v>
+        <v>-10.15719113103961</v>
       </c>
       <c r="J67" t="n">
-        <v>515.3276392503875</v>
+        <v>372.8691581920555</v>
       </c>
       <c r="K67" t="n">
-        <v>-42.21157758261114</v>
+        <v>78.16865155980832</v>
       </c>
       <c r="L67" t="n">
-        <v>-0.08191211642366691</v>
+        <v>0.2096409688021064</v>
       </c>
     </row>
     <row r="68">
@@ -3381,10 +3373,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2023015</v>
+        <v>2023011</v>
       </c>
       <c r="D68" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3392,25 +3384,25 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>445.6267468911392</v>
+        <v>432.920144412982</v>
       </c>
       <c r="G68" t="n">
-        <v>478.1234443323332</v>
+        <v>461.1950008829034</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9320328299596908</v>
+        <v>0.9386921878689221</v>
       </c>
       <c r="I68" t="n">
-        <v>-32.49669744119399</v>
+        <v>-28.27485646992136</v>
       </c>
       <c r="J68" t="n">
-        <v>473.1160616677764</v>
+        <v>451.0378097518638</v>
       </c>
       <c r="K68" t="n">
-        <v>-27.48931477663712</v>
+        <v>-18.11766533888175</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.05810268769936666</v>
+        <v>-0.04016883939031424</v>
       </c>
     </row>
     <row r="69">
@@ -3425,10 +3417,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2023016</v>
+        <v>2023012</v>
       </c>
       <c r="D69" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3436,25 +3428,25 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>443.4564862181491</v>
+        <v>445.9206355867207</v>
       </c>
       <c r="G69" t="n">
-        <v>478.1234443323332</v>
+        <v>461.1950008829034</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9274937079009078</v>
+        <v>0.9668808957882421</v>
       </c>
       <c r="I69" t="n">
-        <v>-34.66695811418418</v>
+        <v>-15.27436529618268</v>
       </c>
       <c r="J69" t="n">
-        <v>445.6267468911392</v>
+        <v>432.920144412982</v>
       </c>
       <c r="K69" t="n">
-        <v>-2.170260672990196</v>
+        <v>13.00049117373868</v>
       </c>
       <c r="L69" t="n">
-        <v>-0.004870131086454621</v>
+        <v>0.03002976724810691</v>
       </c>
     </row>
     <row r="70">
@@ -3469,10 +3461,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2023017</v>
+        <v>2023013</v>
       </c>
       <c r="D70" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3480,25 +3472,25 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>498.1433840749764</v>
+        <v>515.3276392503875</v>
       </c>
       <c r="G70" t="n">
-        <v>478.1234443323332</v>
+        <v>466.031699011312</v>
       </c>
       <c r="H70" t="n">
-        <v>1.041871905634328</v>
+        <v>1.105778084073803</v>
       </c>
       <c r="I70" t="n">
-        <v>20.01993974264315</v>
+        <v>49.29594023907555</v>
       </c>
       <c r="J70" t="n">
-        <v>443.4564862181491</v>
+        <v>445.9206355867207</v>
       </c>
       <c r="K70" t="n">
-        <v>54.68689785682733</v>
+        <v>69.40700366366679</v>
       </c>
       <c r="L70" t="n">
-        <v>0.1233196481648151</v>
+        <v>0.1556487816993364</v>
       </c>
     </row>
     <row r="71">
@@ -3513,10 +3505,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2023018</v>
+        <v>2023014</v>
       </c>
       <c r="D71" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3524,25 +3516,25 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>492.8053223924539</v>
+        <v>473.1160616677764</v>
       </c>
       <c r="G71" t="n">
-        <v>464.253765777742</v>
+        <v>478.1234443323332</v>
       </c>
       <c r="H71" t="n">
-        <v>1.061499892342027</v>
+        <v>0.9895270087172794</v>
       </c>
       <c r="I71" t="n">
-        <v>28.5515566147119</v>
+        <v>-5.007382664556872</v>
       </c>
       <c r="J71" t="n">
-        <v>498.1433840749764</v>
+        <v>515.3276392503875</v>
       </c>
       <c r="K71" t="n">
-        <v>-5.338061682522437</v>
+        <v>-42.21157758261114</v>
       </c>
       <c r="L71" t="n">
-        <v>-0.01071591403835448</v>
+        <v>-0.08191211642366691</v>
       </c>
     </row>
     <row r="72">
@@ -3557,10 +3549,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2023019</v>
+        <v>2023015</v>
       </c>
       <c r="D72" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3568,25 +3560,25 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>463.7097214579682</v>
+        <v>445.6267468911392</v>
       </c>
       <c r="G72" t="n">
-        <v>464.253765777742</v>
+        <v>478.1234443323332</v>
       </c>
       <c r="H72" t="n">
-        <v>0.9988281315955242</v>
+        <v>0.9320328299596908</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.5440443197738318</v>
+        <v>-32.49669744119399</v>
       </c>
       <c r="J72" t="n">
-        <v>492.8053223924539</v>
+        <v>473.1160616677764</v>
       </c>
       <c r="K72" t="n">
-        <v>-29.09560093448573</v>
+        <v>-27.48931477663712</v>
       </c>
       <c r="L72" t="n">
-        <v>-0.05904076034169725</v>
+        <v>-0.05810268769936666</v>
       </c>
     </row>
     <row r="73">
@@ -3601,10 +3593,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2023020</v>
+        <v>2023016</v>
       </c>
       <c r="D73" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3612,25 +3604,25 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>460.0354046183429</v>
+        <v>443.4564862181491</v>
       </c>
       <c r="G73" t="n">
-        <v>464.253765777742</v>
+        <v>478.1234443323332</v>
       </c>
       <c r="H73" t="n">
-        <v>0.9909136737914611</v>
+        <v>0.9274937079009078</v>
       </c>
       <c r="I73" t="n">
-        <v>-4.218361159399194</v>
+        <v>-34.66695811418418</v>
       </c>
       <c r="J73" t="n">
-        <v>463.7097214579682</v>
+        <v>445.6267468911392</v>
       </c>
       <c r="K73" t="n">
-        <v>-3.674316839625362</v>
+        <v>-2.170260672990196</v>
       </c>
       <c r="L73" t="n">
-        <v>-0.007923743388585369</v>
+        <v>-0.004870131086454621</v>
       </c>
     </row>
     <row r="74">
@@ -3645,10 +3637,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2023021</v>
+        <v>2023017</v>
       </c>
       <c r="D74" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3656,25 +3648,25 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>467.6986641551626</v>
+        <v>498.1433840749764</v>
       </c>
       <c r="G74" t="n">
-        <v>464.253765777742</v>
+        <v>478.1234443323332</v>
       </c>
       <c r="H74" t="n">
-        <v>1.007420291726981</v>
+        <v>1.041871905634328</v>
       </c>
       <c r="I74" t="n">
-        <v>3.4448983774206</v>
+        <v>20.01993974264315</v>
       </c>
       <c r="J74" t="n">
-        <v>460.0354046183429</v>
+        <v>443.4564862181491</v>
       </c>
       <c r="K74" t="n">
-        <v>7.663259536819794</v>
+        <v>54.68689785682733</v>
       </c>
       <c r="L74" t="n">
-        <v>0.01665797775538036</v>
+        <v>0.1233196481648151</v>
       </c>
     </row>
     <row r="75">
@@ -3689,10 +3681,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2023022</v>
+        <v>2023018</v>
       </c>
       <c r="D75" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3700,25 +3692,25 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>540.385543757505</v>
+        <v>492.8053223924539</v>
       </c>
       <c r="G75" t="n">
-        <v>474.0140929203655</v>
+        <v>464.253765777742</v>
       </c>
       <c r="H75" t="n">
-        <v>1.140019994823846</v>
+        <v>1.061499892342027</v>
       </c>
       <c r="I75" t="n">
-        <v>66.37145083713955</v>
+        <v>28.5515566147119</v>
       </c>
       <c r="J75" t="n">
-        <v>467.6986641551626</v>
+        <v>498.1433840749764</v>
       </c>
       <c r="K75" t="n">
-        <v>72.6868796023424</v>
+        <v>-5.338061682522437</v>
       </c>
       <c r="L75" t="n">
-        <v>0.1554139132161985</v>
+        <v>-0.01071591403835448</v>
       </c>
     </row>
     <row r="76">
@@ -3733,10 +3725,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2023023</v>
+        <v>2023019</v>
       </c>
       <c r="D76" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3744,43 +3736,43 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>342.5603437967468</v>
+        <v>463.7097214579682</v>
       </c>
       <c r="G76" t="n">
-        <v>343.8102416266665</v>
+        <v>464.253765777742</v>
       </c>
       <c r="H76" t="n">
-        <v>0.9963645706887437</v>
+        <v>0.9988281315955242</v>
       </c>
       <c r="I76" t="n">
-        <v>-1.249897829919689</v>
+        <v>-0.5440443197738318</v>
       </c>
       <c r="J76" t="n">
-        <v>540.385543757505</v>
+        <v>492.8053223924539</v>
       </c>
       <c r="K76" t="n">
-        <v>-197.8251999607583</v>
+        <v>-29.09560093448573</v>
       </c>
       <c r="L76" t="n">
-        <v>-0.3660815916451148</v>
+        <v>-0.05904076034169725</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>TB2R000100</t>
+          <t>TB1R000100</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Postpaid Revenue : TMH</t>
+          <t>Prepaid Revenue : TMH</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2023009</v>
+        <v>2023020</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3788,37 +3780,43 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>600.1672399994725</v>
+        <v>460.0354046183429</v>
       </c>
       <c r="G77" t="n">
-        <v>609.8140388522363</v>
+        <v>464.253765777742</v>
       </c>
       <c r="H77" t="n">
-        <v>0.9841807530851199</v>
+        <v>0.9909136737914611</v>
       </c>
       <c r="I77" t="n">
-        <v>-9.646798852763823</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+        <v>-4.218361159399194</v>
+      </c>
+      <c r="J77" t="n">
+        <v>463.7097214579682</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-3.674316839625362</v>
+      </c>
+      <c r="L77" t="n">
+        <v>-0.007923743388585369</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>TB2R000100</t>
+          <t>TB1R000100</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Postpaid Revenue : TMH</t>
+          <t>Prepaid Revenue : TMH</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2023010</v>
+        <v>2023021</v>
       </c>
       <c r="D78" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3826,43 +3824,43 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>725.0157244713819</v>
+        <v>467.6986641551626</v>
       </c>
       <c r="G78" t="n">
-        <v>725.6005483265835</v>
+        <v>464.253765777742</v>
       </c>
       <c r="H78" t="n">
-        <v>0.9991940140390599</v>
+        <v>1.007420291726981</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.5848238552016483</v>
+        <v>3.4448983774206</v>
       </c>
       <c r="J78" t="n">
-        <v>600.1672399994725</v>
+        <v>460.0354046183429</v>
       </c>
       <c r="K78" t="n">
-        <v>124.8484844719094</v>
+        <v>7.663259536819794</v>
       </c>
       <c r="L78" t="n">
-        <v>0.2080228245580666</v>
+        <v>0.01665797775538036</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>TB2R000100</t>
+          <t>TB1R000100</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Postpaid Revenue : TMH</t>
+          <t>Prepaid Revenue : TMH</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2023011</v>
+        <v>2023022</v>
       </c>
       <c r="D79" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3870,43 +3868,43 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1150.247877698121</v>
+        <v>540.3855437575052</v>
       </c>
       <c r="G79" t="n">
-        <v>1158.550516708282</v>
+        <v>474.0140929203655</v>
       </c>
       <c r="H79" t="n">
-        <v>0.9928335977668448</v>
+        <v>1.140019994823846</v>
       </c>
       <c r="I79" t="n">
-        <v>-8.302639010161329</v>
+        <v>66.37145083713966</v>
       </c>
       <c r="J79" t="n">
-        <v>725.0157244713819</v>
+        <v>467.6986641551626</v>
       </c>
       <c r="K79" t="n">
-        <v>425.2321532267392</v>
+        <v>72.68687960234251</v>
       </c>
       <c r="L79" t="n">
-        <v>0.5865143870317866</v>
+        <v>0.1554139132161987</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>TB2R000100</t>
+          <t>TB1R000100</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Postpaid Revenue : TMH</t>
+          <t>Prepaid Revenue : TMH</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2023012</v>
+        <v>2023023</v>
       </c>
       <c r="D80" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3914,43 +3912,43 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>735.9547901626431</v>
+        <v>409.4087189471243</v>
       </c>
       <c r="G80" t="n">
-        <v>732.4215702572515</v>
+        <v>412.5722899519998</v>
       </c>
       <c r="H80" t="n">
-        <v>1.004824024917986</v>
+        <v>0.9923320807482162</v>
       </c>
       <c r="I80" t="n">
-        <v>3.533219905391661</v>
+        <v>-3.16357100487545</v>
       </c>
       <c r="J80" t="n">
-        <v>1150.247877698121</v>
+        <v>540.3855437575052</v>
       </c>
       <c r="K80" t="n">
-        <v>-414.293087535478</v>
+        <v>-130.9768248103808</v>
       </c>
       <c r="L80" t="n">
-        <v>-0.3601772240297999</v>
+        <v>-0.2423766259542204</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TB2R000100</t>
+          <t>TB1R000100</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Postpaid Revenue : TMH</t>
+          <t>Prepaid Revenue : TMH</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2023013</v>
+        <v>2023024</v>
       </c>
       <c r="D81" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3958,25 +3956,23 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1027.649761111192</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>1017.078766824018</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1.01039348635719</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
-        <v>10.57099428717356</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>735.9547901626431</v>
+        <v>409.4087189471243</v>
       </c>
       <c r="K81" t="n">
-        <v>291.6949709485489</v>
+        <v>-409.4087189471243</v>
       </c>
       <c r="L81" t="n">
-        <v>0.3963490350869046</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82">
@@ -3991,10 +3987,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2023014</v>
+        <v>2023009</v>
       </c>
       <c r="D82" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4002,26 +3998,20 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>242.7064948542087</v>
+        <v>600.1672399994725</v>
       </c>
       <c r="G82" t="n">
-        <v>234.8516057016224</v>
+        <v>609.8140388522363</v>
       </c>
       <c r="H82" t="n">
-        <v>1.033446180319354</v>
+        <v>0.9841807530851199</v>
       </c>
       <c r="I82" t="n">
-        <v>7.854889152586338</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1027.649761111192</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-784.9432662569833</v>
-      </c>
-      <c r="L82" t="n">
-        <v>-0.7638237227907575</v>
-      </c>
+        <v>-9.646798852763823</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4035,10 +4025,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2023015</v>
+        <v>2023010</v>
       </c>
       <c r="D83" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4046,25 +4036,25 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1302.82710867952</v>
+        <v>725.0157244713819</v>
       </c>
       <c r="G83" t="n">
-        <v>1281.795367555091</v>
+        <v>725.6005483265835</v>
       </c>
       <c r="H83" t="n">
-        <v>1.016408033338851</v>
+        <v>0.9991940140390599</v>
       </c>
       <c r="I83" t="n">
-        <v>21.03174112442912</v>
+        <v>-0.5848238552016483</v>
       </c>
       <c r="J83" t="n">
-        <v>242.7064948542087</v>
+        <v>600.1672399994725</v>
       </c>
       <c r="K83" t="n">
-        <v>1060.120613825311</v>
+        <v>124.8484844719094</v>
       </c>
       <c r="L83" t="n">
-        <v>4.367912010192043</v>
+        <v>0.2080228245580666</v>
       </c>
     </row>
     <row r="84">
@@ -4079,10 +4069,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2023016</v>
+        <v>2023011</v>
       </c>
       <c r="D84" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4090,25 +4080,25 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>739.2828374379508</v>
+        <v>1150.247877698121</v>
       </c>
       <c r="G84" t="n">
-        <v>737.0624696409548</v>
+        <v>1158.550516708282</v>
       </c>
       <c r="H84" t="n">
-        <v>1.003012455373121</v>
+        <v>0.9928335977668448</v>
       </c>
       <c r="I84" t="n">
-        <v>2.220367796996015</v>
+        <v>-8.302639010161329</v>
       </c>
       <c r="J84" t="n">
-        <v>1302.82710867952</v>
+        <v>725.0157244713819</v>
       </c>
       <c r="K84" t="n">
-        <v>-563.5442712415695</v>
+        <v>425.2321532267392</v>
       </c>
       <c r="L84" t="n">
-        <v>-0.4325549165251478</v>
+        <v>0.5865143870317866</v>
       </c>
     </row>
     <row r="85">
@@ -4123,10 +4113,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2023017</v>
+        <v>2023012</v>
       </c>
       <c r="D85" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4134,25 +4124,25 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>788.960548508075</v>
+        <v>735.9547901626431</v>
       </c>
       <c r="G85" t="n">
-        <v>776.7749625839613</v>
+        <v>732.4215702572515</v>
       </c>
       <c r="H85" t="n">
-        <v>1.015687408208393</v>
+        <v>1.004824024917986</v>
       </c>
       <c r="I85" t="n">
-        <v>12.18558592411375</v>
+        <v>3.533219905391661</v>
       </c>
       <c r="J85" t="n">
-        <v>739.2828374379508</v>
+        <v>1150.247877698121</v>
       </c>
       <c r="K85" t="n">
-        <v>49.67771107012425</v>
+        <v>-414.293087535478</v>
       </c>
       <c r="L85" t="n">
-        <v>0.06719716535323172</v>
+        <v>-0.3601772240297999</v>
       </c>
     </row>
     <row r="86">
@@ -4167,10 +4157,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2023018</v>
+        <v>2023013</v>
       </c>
       <c r="D86" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4178,25 +4168,25 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>858.2895710327067</v>
+        <v>1027.649761111192</v>
       </c>
       <c r="G86" t="n">
-        <v>848.6515416100751</v>
+        <v>1017.078766824018</v>
       </c>
       <c r="H86" t="n">
-        <v>1.01135687493638</v>
+        <v>1.01039348635719</v>
       </c>
       <c r="I86" t="n">
-        <v>9.638029422631575</v>
+        <v>10.57099428717356</v>
       </c>
       <c r="J86" t="n">
-        <v>788.960548508075</v>
+        <v>735.9547901626431</v>
       </c>
       <c r="K86" t="n">
-        <v>69.32902252463168</v>
+        <v>291.6949709485489</v>
       </c>
       <c r="L86" t="n">
-        <v>0.08787387741469832</v>
+        <v>0.3963490350869046</v>
       </c>
     </row>
     <row r="87">
@@ -4211,10 +4201,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2023019</v>
+        <v>2023014</v>
       </c>
       <c r="D87" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4222,25 +4212,25 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>907.78530108531</v>
+        <v>242.7064948542087</v>
       </c>
       <c r="G87" t="n">
-        <v>906.0946617905372</v>
+        <v>234.8516057016224</v>
       </c>
       <c r="H87" t="n">
-        <v>1.001865852836427</v>
+        <v>1.033446180319354</v>
       </c>
       <c r="I87" t="n">
-        <v>1.690639294772836</v>
+        <v>7.854889152586338</v>
       </c>
       <c r="J87" t="n">
-        <v>858.2895710327067</v>
+        <v>1027.649761111192</v>
       </c>
       <c r="K87" t="n">
-        <v>49.49573005260334</v>
+        <v>-784.9432662569833</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05766786842469651</v>
+        <v>-0.7638237227907575</v>
       </c>
     </row>
     <row r="88">
@@ -4255,10 +4245,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2023020</v>
+        <v>2023015</v>
       </c>
       <c r="D88" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4266,25 +4256,25 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>746.3671625596537</v>
+        <v>1302.82710867952</v>
       </c>
       <c r="G88" t="n">
-        <v>752.9035724546557</v>
+        <v>1281.795367555091</v>
       </c>
       <c r="H88" t="n">
-        <v>0.9913183970243472</v>
+        <v>1.016408033338851</v>
       </c>
       <c r="I88" t="n">
-        <v>-6.536409895001952</v>
+        <v>21.03174112442912</v>
       </c>
       <c r="J88" t="n">
-        <v>907.78530108531</v>
+        <v>242.7064948542087</v>
       </c>
       <c r="K88" t="n">
-        <v>-161.4181385256563</v>
+        <v>1060.120613825311</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.1778153252015334</v>
+        <v>4.367912010192043</v>
       </c>
     </row>
     <row r="89">
@@ -4299,10 +4289,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2023021</v>
+        <v>2023016</v>
       </c>
       <c r="D89" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4310,25 +4300,25 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1109.795181348647</v>
+        <v>739.2828374379508</v>
       </c>
       <c r="G89" t="n">
-        <v>1126.779886086549</v>
+        <v>737.0624696409548</v>
       </c>
       <c r="H89" t="n">
-        <v>0.9849263330419471</v>
+        <v>1.003012455373121</v>
       </c>
       <c r="I89" t="n">
-        <v>-16.98470473790144</v>
+        <v>2.220367796996015</v>
       </c>
       <c r="J89" t="n">
-        <v>746.3671625596537</v>
+        <v>1302.82710867952</v>
       </c>
       <c r="K89" t="n">
-        <v>363.4280187889938</v>
+        <v>-563.5442712415695</v>
       </c>
       <c r="L89" t="n">
-        <v>0.4869292715700722</v>
+        <v>-0.4325549165251478</v>
       </c>
     </row>
     <row r="90">
@@ -4343,10 +4333,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2023022</v>
+        <v>2023017</v>
       </c>
       <c r="D90" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4354,25 +4344,25 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>599.0807405599998</v>
+        <v>788.960548508075</v>
       </c>
       <c r="G90" t="n">
-        <v>632.2653079201571</v>
+        <v>776.7749625839613</v>
       </c>
       <c r="H90" t="n">
-        <v>0.9475148059770696</v>
+        <v>1.015687408208393</v>
       </c>
       <c r="I90" t="n">
-        <v>-33.1845673601573</v>
+        <v>12.18558592411375</v>
       </c>
       <c r="J90" t="n">
-        <v>1109.795181348647</v>
+        <v>739.2828374379508</v>
       </c>
       <c r="K90" t="n">
-        <v>-510.7144407886477</v>
+        <v>49.67771107012425</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.4601880143036992</v>
+        <v>0.06719716535323172</v>
       </c>
     </row>
     <row r="91">
@@ -4387,10 +4377,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2023023</v>
+        <v>2023018</v>
       </c>
       <c r="D91" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4398,43 +4388,43 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>695.9037808499996</v>
+        <v>858.2895710327067</v>
       </c>
       <c r="G91" t="n">
-        <v>731.5270472344112</v>
+        <v>848.6515416100751</v>
       </c>
       <c r="H91" t="n">
-        <v>0.9513028718225967</v>
+        <v>1.01135687493638</v>
       </c>
       <c r="I91" t="n">
-        <v>-35.62326638441152</v>
+        <v>9.638029422631575</v>
       </c>
       <c r="J91" t="n">
-        <v>599.0807405599998</v>
+        <v>788.960548508075</v>
       </c>
       <c r="K91" t="n">
-        <v>96.82304028999988</v>
+        <v>69.32902252463168</v>
       </c>
       <c r="L91" t="n">
-        <v>0.1616193506729879</v>
+        <v>0.08787387741469832</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>TB3R000100</t>
+          <t>TB2R000100</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TOL Revenue</t>
+          <t>Postpaid Revenue : TMH</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2023009</v>
+        <v>2023019</v>
       </c>
       <c r="D92" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4442,37 +4432,43 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>189.7131664633872</v>
+        <v>907.78530108531</v>
       </c>
       <c r="G92" t="n">
-        <v>205.1733563229421</v>
+        <v>906.0946617905372</v>
       </c>
       <c r="H92" t="n">
-        <v>0.9246481602844153</v>
+        <v>1.001865852836427</v>
       </c>
       <c r="I92" t="n">
-        <v>-15.46018985955487</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+        <v>1.690639294772836</v>
+      </c>
+      <c r="J92" t="n">
+        <v>858.2895710327067</v>
+      </c>
+      <c r="K92" t="n">
+        <v>49.49573005260334</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.05766786842469651</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>TB3R000100</t>
+          <t>TB2R000100</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TOL Revenue</t>
+          <t>Postpaid Revenue : TMH</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2023010</v>
+        <v>2023020</v>
       </c>
       <c r="D93" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4480,43 +4476,43 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>305.6323832849024</v>
+        <v>746.3671625596537</v>
       </c>
       <c r="G93" t="n">
-        <v>326.5780632452203</v>
+        <v>752.9035724546557</v>
       </c>
       <c r="H93" t="n">
-        <v>0.9358631754007608</v>
+        <v>0.9913183970243472</v>
       </c>
       <c r="I93" t="n">
-        <v>-20.94567996031793</v>
+        <v>-6.536409895001952</v>
       </c>
       <c r="J93" t="n">
-        <v>189.7131664633872</v>
+        <v>907.78530108531</v>
       </c>
       <c r="K93" t="n">
-        <v>115.9192168215152</v>
+        <v>-161.4181385256563</v>
       </c>
       <c r="L93" t="n">
-        <v>0.6110235730206233</v>
+        <v>-0.1778153252015334</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>TB3R000100</t>
+          <t>TB2R000100</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TOL Revenue</t>
+          <t>Postpaid Revenue : TMH</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2023011</v>
+        <v>2023021</v>
       </c>
       <c r="D94" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4524,43 +4520,43 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>457.5292255480808</v>
+        <v>1109.795181348647</v>
       </c>
       <c r="G94" t="n">
-        <v>488.7215396046616</v>
+        <v>1126.779886086549</v>
       </c>
       <c r="H94" t="n">
-        <v>0.9361756920273803</v>
+        <v>0.9849263330419471</v>
       </c>
       <c r="I94" t="n">
-        <v>-31.19231405658081</v>
+        <v>-16.98470473790144</v>
       </c>
       <c r="J94" t="n">
-        <v>305.6323832849024</v>
+        <v>746.3671625596537</v>
       </c>
       <c r="K94" t="n">
-        <v>151.8968422631784</v>
+        <v>363.4280187889938</v>
       </c>
       <c r="L94" t="n">
-        <v>0.4969919765392929</v>
+        <v>0.4869292715700722</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>TB3R000100</t>
+          <t>TB2R000100</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TOL Revenue</t>
+          <t>Postpaid Revenue : TMH</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2023012</v>
+        <v>2023022</v>
       </c>
       <c r="D95" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4568,43 +4564,43 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>293.16305118155</v>
+        <v>599.0827593500002</v>
       </c>
       <c r="G95" t="n">
-        <v>311.8844502143373</v>
+        <v>632.2653079201571</v>
       </c>
       <c r="H95" t="n">
-        <v>0.9399732849139439</v>
+        <v>0.9475179989246741</v>
       </c>
       <c r="I95" t="n">
-        <v>-18.72139903278725</v>
+        <v>-33.18254857015688</v>
       </c>
       <c r="J95" t="n">
-        <v>457.5292255480808</v>
+        <v>1109.795181348647</v>
       </c>
       <c r="K95" t="n">
-        <v>-164.3661743665308</v>
+        <v>-510.7124219986473</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.3592473774099003</v>
+        <v>-0.4601861952383127</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>TB3R000100</t>
+          <t>TB2R000100</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TOL Revenue</t>
+          <t>Postpaid Revenue : TMH</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2023013</v>
+        <v>2023023</v>
       </c>
       <c r="D96" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4612,43 +4608,43 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>348.4409388624181</v>
+        <v>695.9037808500001</v>
       </c>
       <c r="G96" t="n">
-        <v>371.7353492393212</v>
+        <v>731.5270472344112</v>
       </c>
       <c r="H96" t="n">
-        <v>0.9373360364448249</v>
+        <v>0.9513028718225972</v>
       </c>
       <c r="I96" t="n">
-        <v>-23.2944103769031</v>
+        <v>-35.62326638441107</v>
       </c>
       <c r="J96" t="n">
-        <v>293.16305118155</v>
+        <v>599.0827593500002</v>
       </c>
       <c r="K96" t="n">
-        <v>55.27788768086805</v>
+        <v>96.82102149999992</v>
       </c>
       <c r="L96" t="n">
-        <v>0.188556802973904</v>
+        <v>0.1616154362463209</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>TB3R000100</t>
+          <t>TB2R000100</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TOL Revenue</t>
+          <t>Postpaid Revenue : TMH</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2023014</v>
+        <v>2023024</v>
       </c>
       <c r="D97" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4656,25 +4652,23 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>104.2815944845406</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>108.9482416114543</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0.9571663841665606</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>-4.666647126913773</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>348.4409388624181</v>
+        <v>695.9037808500001</v>
       </c>
       <c r="K97" t="n">
-        <v>-244.1593443778775</v>
+        <v>-695.9037808500001</v>
       </c>
       <c r="L97" t="n">
-        <v>-0.7007194538477691</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98">
@@ -4689,10 +4683,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2023015</v>
+        <v>2023009</v>
       </c>
       <c r="D98" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4700,26 +4694,20 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>513.9552544038515</v>
+        <v>189.7131664633872</v>
       </c>
       <c r="G98" t="n">
-        <v>553.0210157250142</v>
+        <v>205.1733563229421</v>
       </c>
       <c r="H98" t="n">
-        <v>0.9293593548701812</v>
+        <v>0.9246481602844153</v>
       </c>
       <c r="I98" t="n">
-        <v>-39.06576132116265</v>
-      </c>
-      <c r="J98" t="n">
-        <v>104.2815944845406</v>
-      </c>
-      <c r="K98" t="n">
-        <v>409.673659919311</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.928532757331821</v>
-      </c>
+        <v>-15.46018985955487</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4733,10 +4721,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2023016</v>
+        <v>2023010</v>
       </c>
       <c r="D99" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4744,25 +4732,25 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>293.4752099504024</v>
+        <v>305.6323832849024</v>
       </c>
       <c r="G99" t="n">
-        <v>315.4649339943962</v>
+        <v>326.5780632452203</v>
       </c>
       <c r="H99" t="n">
-        <v>0.9302942366190708</v>
+        <v>0.9358631754007608</v>
       </c>
       <c r="I99" t="n">
-        <v>-21.98972404399382</v>
+        <v>-20.94567996031793</v>
       </c>
       <c r="J99" t="n">
-        <v>513.9552544038515</v>
+        <v>189.7131664633872</v>
       </c>
       <c r="K99" t="n">
-        <v>-220.4800444534492</v>
+        <v>115.9192168215152</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.4289868477153503</v>
+        <v>0.6110235730206233</v>
       </c>
     </row>
     <row r="100">
@@ -4777,10 +4765,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2023017</v>
+        <v>2023011</v>
       </c>
       <c r="D100" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4788,25 +4776,25 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>300.7276434150127</v>
+        <v>457.5292255480808</v>
       </c>
       <c r="G100" t="n">
-        <v>322.9685135226533</v>
+        <v>488.7215396046616</v>
       </c>
       <c r="H100" t="n">
-        <v>0.9311361040583895</v>
+        <v>0.9361756920273803</v>
       </c>
       <c r="I100" t="n">
-        <v>-22.2408701076406</v>
+        <v>-31.19231405658081</v>
       </c>
       <c r="J100" t="n">
-        <v>293.4752099504024</v>
+        <v>305.6323832849024</v>
       </c>
       <c r="K100" t="n">
-        <v>7.252433464610363</v>
+        <v>151.8968422631784</v>
       </c>
       <c r="L100" t="n">
-        <v>0.02471225241081187</v>
+        <v>0.4969919765392929</v>
       </c>
     </row>
     <row r="101">
@@ -4821,10 +4809,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2023018</v>
+        <v>2023012</v>
       </c>
       <c r="D101" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4832,25 +4820,25 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>302.0800641397255</v>
+        <v>293.16305118155</v>
       </c>
       <c r="G101" t="n">
-        <v>317.2967140411465</v>
+        <v>311.8844502143373</v>
       </c>
       <c r="H101" t="n">
-        <v>0.9520428380501673</v>
+        <v>0.9399732849139439</v>
       </c>
       <c r="I101" t="n">
-        <v>-15.21664990142102</v>
+        <v>-18.72139903278725</v>
       </c>
       <c r="J101" t="n">
-        <v>300.7276434150127</v>
+        <v>457.5292255480808</v>
       </c>
       <c r="K101" t="n">
-        <v>1.352420724712772</v>
+        <v>-164.3661743665308</v>
       </c>
       <c r="L101" t="n">
-        <v>0.004497161316315612</v>
+        <v>-0.3592473774099003</v>
       </c>
     </row>
     <row r="102">
@@ -4865,10 +4853,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2023019</v>
+        <v>2023013</v>
       </c>
       <c r="D102" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4876,25 +4864,25 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>363.1537250540562</v>
+        <v>348.4409388624181</v>
       </c>
       <c r="G102" t="n">
-        <v>385.5049141319863</v>
+        <v>371.7353492393212</v>
       </c>
       <c r="H102" t="n">
-        <v>0.9420210008781426</v>
+        <v>0.9373360364448249</v>
       </c>
       <c r="I102" t="n">
-        <v>-22.35118907793014</v>
+        <v>-23.2944103769031</v>
       </c>
       <c r="J102" t="n">
-        <v>302.0800641397255</v>
+        <v>293.16305118155</v>
       </c>
       <c r="K102" t="n">
-        <v>61.07366091433067</v>
+        <v>55.27788768086805</v>
       </c>
       <c r="L102" t="n">
-        <v>0.2021770655016857</v>
+        <v>0.188556802973904</v>
       </c>
     </row>
     <row r="103">
@@ -4909,10 +4897,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2023020</v>
+        <v>2023014</v>
       </c>
       <c r="D103" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4920,25 +4908,25 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>306.8129496514836</v>
+        <v>104.2815944845406</v>
       </c>
       <c r="G103" t="n">
-        <v>330.1662021149168</v>
+        <v>108.9482416114543</v>
       </c>
       <c r="H103" t="n">
-        <v>0.929268191856582</v>
+        <v>0.9571663841665606</v>
       </c>
       <c r="I103" t="n">
-        <v>-23.35325246343325</v>
+        <v>-4.666647126913773</v>
       </c>
       <c r="J103" t="n">
-        <v>363.1537250540562</v>
+        <v>348.4409388624181</v>
       </c>
       <c r="K103" t="n">
-        <v>-56.3407754025726</v>
+        <v>-244.1593443778775</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.1551430469126709</v>
+        <v>-0.7007194538477691</v>
       </c>
     </row>
     <row r="104">
@@ -4953,10 +4941,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2023021</v>
+        <v>2023015</v>
       </c>
       <c r="D104" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4964,25 +4952,25 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>300.2545814821249</v>
+        <v>513.9552544038515</v>
       </c>
       <c r="G104" t="n">
-        <v>483.033164001951</v>
+        <v>553.0210157250142</v>
       </c>
       <c r="H104" t="n">
-        <v>0.6216024154418353</v>
+        <v>0.9293593548701812</v>
       </c>
       <c r="I104" t="n">
-        <v>-182.7785825198261</v>
+        <v>-39.06576132116265</v>
       </c>
       <c r="J104" t="n">
-        <v>306.8129496514836</v>
+        <v>104.2815944845406</v>
       </c>
       <c r="K104" t="n">
-        <v>-6.55836816935863</v>
+        <v>409.673659919311</v>
       </c>
       <c r="L104" t="n">
-        <v>-0.02137578670264229</v>
+        <v>3.928532757331821</v>
       </c>
     </row>
     <row r="105">
@@ -4997,10 +4985,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2023022</v>
+        <v>2023016</v>
       </c>
       <c r="D105" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -5008,23 +4996,25 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>293.4752099504024</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
-      </c>
-      <c r="H105" t="inlineStr"/>
+        <v>315.4649339943962</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.9302942366190708</v>
+      </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>-21.98972404399382</v>
       </c>
       <c r="J105" t="n">
-        <v>300.2545814821249</v>
+        <v>513.9552544038515</v>
       </c>
       <c r="K105" t="n">
-        <v>-300.2545814821249</v>
+        <v>-220.4800444534492</v>
       </c>
       <c r="L105" t="n">
-        <v>-1</v>
+        <v>-0.4289868477153503</v>
       </c>
     </row>
     <row r="106">
@@ -5039,10 +5029,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2023023</v>
+        <v>2023017</v>
       </c>
       <c r="D106" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -5050,39 +5040,43 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>300.7276434150127</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H106" t="inlineStr"/>
+        <v>322.9685135226533</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.9311361040583895</v>
+      </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>-22.2408701076406</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>293.4752099504024</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
-      </c>
-      <c r="L106" t="inlineStr"/>
+        <v>7.252433464610363</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.02471225241081187</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>TB4R000100</t>
+          <t>TB3R000100</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TVS Revenue</t>
+          <t>TOL Revenue</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2023009</v>
+        <v>2023018</v>
       </c>
       <c r="D107" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -5090,37 +5084,43 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>42.43064600000001</v>
+        <v>302.0800641397255</v>
       </c>
       <c r="G107" t="n">
-        <v>47.55594632131715</v>
+        <v>317.2967140411465</v>
       </c>
       <c r="H107" t="n">
-        <v>0.8922258788272771</v>
+        <v>0.9520428380501673</v>
       </c>
       <c r="I107" t="n">
-        <v>-5.125300321317141</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+        <v>-15.21664990142102</v>
+      </c>
+      <c r="J107" t="n">
+        <v>300.7276434150127</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1.352420724712772</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.004497161316315612</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>TB4R000100</t>
+          <t>TB3R000100</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TVS Revenue</t>
+          <t>TOL Revenue</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2023010</v>
+        <v>2023019</v>
       </c>
       <c r="D108" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -5128,43 +5128,43 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>47.69526162</v>
+        <v>363.1537250540562</v>
       </c>
       <c r="G108" t="n">
-        <v>53.25349347794824</v>
+        <v>385.5049141319863</v>
       </c>
       <c r="H108" t="n">
-        <v>0.8956269064254</v>
+        <v>0.9420210008781426</v>
       </c>
       <c r="I108" t="n">
-        <v>-5.558231857948243</v>
+        <v>-22.35118907793014</v>
       </c>
       <c r="J108" t="n">
-        <v>42.43064600000001</v>
+        <v>302.0800641397255</v>
       </c>
       <c r="K108" t="n">
-        <v>5.264615619999987</v>
+        <v>61.07366091433067</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1240757828669397</v>
+        <v>0.2021770655016857</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>TB4R000100</t>
+          <t>TB3R000100</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TVS Revenue</t>
+          <t>TOL Revenue</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2023011</v>
+        <v>2023020</v>
       </c>
       <c r="D109" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5172,43 +5172,43 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>81.53630443999998</v>
+        <v>306.8129496514836</v>
       </c>
       <c r="G109" t="n">
-        <v>90.56305760405922</v>
+        <v>330.1662021149168</v>
       </c>
       <c r="H109" t="n">
-        <v>0.9003263206557787</v>
+        <v>0.929268191856582</v>
       </c>
       <c r="I109" t="n">
-        <v>-9.026753164059244</v>
+        <v>-23.35325246343325</v>
       </c>
       <c r="J109" t="n">
-        <v>47.69526162</v>
+        <v>363.1537250540562</v>
       </c>
       <c r="K109" t="n">
-        <v>33.84104281999998</v>
+        <v>-56.3407754025726</v>
       </c>
       <c r="L109" t="n">
-        <v>0.709526306609239</v>
+        <v>-0.1551430469126709</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>TB4R000100</t>
+          <t>TB3R000100</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TVS Revenue</t>
+          <t>TOL Revenue</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2023012</v>
+        <v>2023021</v>
       </c>
       <c r="D110" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5216,43 +5216,43 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>51.7418789</v>
+        <v>300.2545814821249</v>
       </c>
       <c r="G110" t="n">
-        <v>57.80424957017457</v>
+        <v>483.033164001951</v>
       </c>
       <c r="H110" t="n">
-        <v>0.8951224050955834</v>
+        <v>0.6216024154418353</v>
       </c>
       <c r="I110" t="n">
-        <v>-6.062370670174566</v>
+        <v>-182.7785825198261</v>
       </c>
       <c r="J110" t="n">
-        <v>81.53630443999998</v>
+        <v>306.8129496514836</v>
       </c>
       <c r="K110" t="n">
-        <v>-29.79442553999998</v>
+        <v>-6.55836816935863</v>
       </c>
       <c r="L110" t="n">
-        <v>-0.3654129990883357</v>
+        <v>-0.02137578670264229</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>TB4R000100</t>
+          <t>TB3R000100</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TVS Revenue</t>
+          <t>TOL Revenue</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2023013</v>
+        <v>2023022</v>
       </c>
       <c r="D111" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5260,43 +5260,41 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>91.51486227000004</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>211.9955450778182</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0.4316829499242885</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="n">
-        <v>-120.4806828078181</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>51.7418789</v>
+        <v>300.2545814821249</v>
       </c>
       <c r="K111" t="n">
-        <v>39.77298337000003</v>
+        <v>-300.2545814821249</v>
       </c>
       <c r="L111" t="n">
-        <v>0.7686806937735697</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>TB4R000100</t>
+          <t>TB3R000100</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TVS Revenue</t>
+          <t>TOL Revenue</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>2023014</v>
+        <v>2023023</v>
       </c>
       <c r="D112" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5304,43 +5302,39 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>11.22700925999999</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>12.00052260822074</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0.9355433614457035</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="n">
-        <v>-0.7735133482207477</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>91.51486227000004</v>
+        <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>-80.28785301000005</v>
-      </c>
-      <c r="L112" t="n">
-        <v>-0.8773203719973212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TB4R000100</t>
+          <t>TB3R000100</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TVS Revenue</t>
+          <t>TOL Revenue</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>2023015</v>
+        <v>2023024</v>
       </c>
       <c r="D113" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -5348,26 +5342,22 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>93.37609160000002</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>103.700019677918</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0.9004442997216098</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
-        <v>-10.32392807791797</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>11.22700925999999</v>
+        <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>82.14908234000004</v>
-      </c>
-      <c r="L113" t="n">
-        <v>7.317094021885584</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5381,10 +5371,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2023016</v>
+        <v>2023009</v>
       </c>
       <c r="D114" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -5392,26 +5382,20 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>51.69178874999999</v>
+        <v>42.43064600000001</v>
       </c>
       <c r="G114" t="n">
-        <v>56.98097933306326</v>
+        <v>47.55594632131715</v>
       </c>
       <c r="H114" t="n">
-        <v>0.9071762078333705</v>
+        <v>0.8922258788272771</v>
       </c>
       <c r="I114" t="n">
-        <v>-5.289190583063274</v>
-      </c>
-      <c r="J114" t="n">
-        <v>93.37609160000002</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-41.68430285000004</v>
-      </c>
-      <c r="L114" t="n">
-        <v>-0.4464130178907598</v>
-      </c>
+        <v>-5.125300321317141</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5425,10 +5409,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>2023017</v>
+        <v>2023010</v>
       </c>
       <c r="D115" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -5436,25 +5420,25 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>74.61030138999999</v>
+        <v>47.69526162</v>
       </c>
       <c r="G115" t="n">
-        <v>193.3788777894809</v>
+        <v>53.25349347794824</v>
       </c>
       <c r="H115" t="n">
-        <v>0.3858244615072355</v>
+        <v>0.8956269064254</v>
       </c>
       <c r="I115" t="n">
-        <v>-118.7685763994809</v>
+        <v>-5.558231857948243</v>
       </c>
       <c r="J115" t="n">
-        <v>51.69178874999999</v>
+        <v>42.43064600000001</v>
       </c>
       <c r="K115" t="n">
-        <v>22.91851264</v>
+        <v>5.264615619999987</v>
       </c>
       <c r="L115" t="n">
-        <v>0.4433685348139556</v>
+        <v>0.1240757828669397</v>
       </c>
     </row>
     <row r="116">
@@ -5469,10 +5453,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>2023018</v>
+        <v>2023011</v>
       </c>
       <c r="D116" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -5480,25 +5464,25 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>53.67200595000001</v>
+        <v>81.53630443999998</v>
       </c>
       <c r="G116" t="n">
-        <v>59.55646892953787</v>
+        <v>90.56305760405922</v>
       </c>
       <c r="H116" t="n">
-        <v>0.9011952339467968</v>
+        <v>0.9003263206557787</v>
       </c>
       <c r="I116" t="n">
-        <v>-5.884462979537858</v>
+        <v>-9.026753164059244</v>
       </c>
       <c r="J116" t="n">
-        <v>74.61030138999999</v>
+        <v>47.69526162</v>
       </c>
       <c r="K116" t="n">
-        <v>-20.93829543999998</v>
+        <v>33.84104281999998</v>
       </c>
       <c r="L116" t="n">
-        <v>-0.2806354491258808</v>
+        <v>0.709526306609239</v>
       </c>
     </row>
     <row r="117">
@@ -5513,10 +5497,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>2023019</v>
+        <v>2023012</v>
       </c>
       <c r="D117" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -5524,25 +5508,25 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>63.24431318000001</v>
+        <v>51.7418789</v>
       </c>
       <c r="G117" t="n">
-        <v>71.52704823325655</v>
+        <v>57.80424957017457</v>
       </c>
       <c r="H117" t="n">
-        <v>0.8842013579779533</v>
+        <v>0.8951224050955834</v>
       </c>
       <c r="I117" t="n">
-        <v>-8.282735053256545</v>
+        <v>-6.062370670174566</v>
       </c>
       <c r="J117" t="n">
-        <v>53.67200595000001</v>
+        <v>81.53630443999998</v>
       </c>
       <c r="K117" t="n">
-        <v>9.572307229999993</v>
+        <v>-29.79442553999998</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1783482294087797</v>
+        <v>-0.3654129990883357</v>
       </c>
     </row>
     <row r="118">
@@ -5557,10 +5541,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>2023020</v>
+        <v>2023013</v>
       </c>
       <c r="D118" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -5568,25 +5552,25 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>53.12638114000002</v>
+        <v>91.51486227000004</v>
       </c>
       <c r="G118" t="n">
-        <v>60.28898024053012</v>
+        <v>211.9955450778182</v>
       </c>
       <c r="H118" t="n">
-        <v>0.8811955506304129</v>
+        <v>0.4316829499242885</v>
       </c>
       <c r="I118" t="n">
-        <v>-7.162599100530102</v>
+        <v>-120.4806828078181</v>
       </c>
       <c r="J118" t="n">
-        <v>63.24431318000001</v>
+        <v>51.7418789</v>
       </c>
       <c r="K118" t="n">
-        <v>-10.11793203999999</v>
+        <v>39.77298337000003</v>
       </c>
       <c r="L118" t="n">
-        <v>-0.1599816889655087</v>
+        <v>0.7686806937735697</v>
       </c>
     </row>
     <row r="119">
@@ -5601,10 +5585,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2023021</v>
+        <v>2023014</v>
       </c>
       <c r="D119" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -5612,25 +5596,25 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>79.48593683999999</v>
+        <v>11.22700925999999</v>
       </c>
       <c r="G119" t="n">
-        <v>74.40398460532771</v>
+        <v>12.00052260822074</v>
       </c>
       <c r="H119" t="n">
-        <v>1.068302151580043</v>
+        <v>0.9355433614457035</v>
       </c>
       <c r="I119" t="n">
-        <v>5.081952234672286</v>
+        <v>-0.7735133482207477</v>
       </c>
       <c r="J119" t="n">
-        <v>53.12638114000002</v>
+        <v>91.51486227000004</v>
       </c>
       <c r="K119" t="n">
-        <v>26.35955569999997</v>
+        <v>-80.28785301000005</v>
       </c>
       <c r="L119" t="n">
-        <v>0.4961669726860669</v>
+        <v>-0.8773203719973212</v>
       </c>
     </row>
     <row r="120">
@@ -5645,10 +5629,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2023022</v>
+        <v>2023015</v>
       </c>
       <c r="D120" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -5656,25 +5640,25 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>168.1172614400001</v>
+        <v>93.37609160000002</v>
       </c>
       <c r="G120" t="n">
-        <v>195.3958100426649</v>
+        <v>103.700019677918</v>
       </c>
       <c r="H120" t="n">
-        <v>0.8603933799977161</v>
+        <v>0.9004442997216098</v>
       </c>
       <c r="I120" t="n">
-        <v>-27.27854860266476</v>
+        <v>-10.32392807791797</v>
       </c>
       <c r="J120" t="n">
-        <v>79.48593683999999</v>
+        <v>11.22700925999999</v>
       </c>
       <c r="K120" t="n">
-        <v>88.63132460000014</v>
+        <v>82.14908234000004</v>
       </c>
       <c r="L120" t="n">
-        <v>1.115056676986889</v>
+        <v>7.317094021885584</v>
       </c>
     </row>
     <row r="121">
@@ -5689,10 +5673,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>2023023</v>
+        <v>2023016</v>
       </c>
       <c r="D121" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -5700,371 +5684,375 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>11.79599309</v>
+        <v>51.69178874999999</v>
       </c>
       <c r="G121" t="n">
-        <v>12.00052260822073</v>
+        <v>56.98097933306326</v>
       </c>
       <c r="H121" t="n">
-        <v>0.9829566157326658</v>
+        <v>0.9071762078333705</v>
       </c>
       <c r="I121" t="n">
-        <v>-0.2045295182207383</v>
+        <v>-5.289190583063274</v>
       </c>
       <c r="J121" t="n">
-        <v>168.1172614400001</v>
+        <v>93.37609160000002</v>
       </c>
       <c r="K121" t="n">
-        <v>-156.3212683500001</v>
+        <v>-41.68430285000004</v>
       </c>
       <c r="L121" t="n">
-        <v>-0.9298347297061468</v>
+        <v>-0.4464130178907598</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>TNSC00143</t>
+          <t>TB4R000100</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TDG Revenue (Conso View)</t>
+          <t>TVS Revenue</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>2023010</v>
+        <v>2023017</v>
       </c>
       <c r="D122" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>237.2921768</v>
+        <v>74.61030138999999</v>
       </c>
       <c r="G122" t="n">
-        <v>288</v>
+        <v>193.3788777894809</v>
       </c>
       <c r="H122" t="n">
-        <v>0.8239311694444446</v>
+        <v>0.3858244615072355</v>
       </c>
       <c r="I122" t="n">
-        <v>-50.70782319999998</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+        <v>-118.7685763994809</v>
+      </c>
+      <c r="J122" t="n">
+        <v>51.69178874999999</v>
+      </c>
+      <c r="K122" t="n">
+        <v>22.91851264</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.4433685348139556</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>TNSC00143</t>
+          <t>TB4R000100</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TDG Revenue (Conso View)</t>
+          <t>TVS Revenue</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2023011</v>
+        <v>2023018</v>
       </c>
       <c r="D123" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>237.2921768</v>
+        <v>53.67200595000001</v>
       </c>
       <c r="G123" t="n">
-        <v>288</v>
+        <v>59.55646892953787</v>
       </c>
       <c r="H123" t="n">
-        <v>0.8239311694444446</v>
+        <v>0.9011952339467968</v>
       </c>
       <c r="I123" t="n">
-        <v>-50.70782319999998</v>
+        <v>-5.884462979537858</v>
       </c>
       <c r="J123" t="n">
-        <v>237.2921768</v>
+        <v>74.61030138999999</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>-20.93829543999998</v>
       </c>
       <c r="L123" t="n">
-        <v>0</v>
+        <v>-0.2806354491258808</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>TNSC00143</t>
+          <t>TB4R000100</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TDG Revenue (Conso View)</t>
+          <t>TVS Revenue</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2023012</v>
+        <v>2023019</v>
       </c>
       <c r="D124" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>237.2921768</v>
+        <v>63.24431318000001</v>
       </c>
       <c r="G124" t="n">
-        <v>288</v>
+        <v>71.52704823325655</v>
       </c>
       <c r="H124" t="n">
-        <v>0.8239311694444446</v>
+        <v>0.8842013579779533</v>
       </c>
       <c r="I124" t="n">
-        <v>-50.70782319999998</v>
+        <v>-8.282735053256545</v>
       </c>
       <c r="J124" t="n">
-        <v>237.2921768</v>
+        <v>53.67200595000001</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>9.572307229999993</v>
       </c>
       <c r="L124" t="n">
-        <v>0</v>
+        <v>0.1783482294087797</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>TNSC00143</t>
+          <t>TB4R000100</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TDG Revenue (Conso View)</t>
+          <t>TVS Revenue</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2023013</v>
+        <v>2023020</v>
       </c>
       <c r="D125" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>237.2921768</v>
+        <v>53.12638114000002</v>
       </c>
       <c r="G125" t="n">
-        <v>288</v>
+        <v>60.28898024053012</v>
       </c>
       <c r="H125" t="n">
-        <v>0.8239311694444446</v>
+        <v>0.8811955506304129</v>
       </c>
       <c r="I125" t="n">
-        <v>-50.70782319999998</v>
+        <v>-7.162599100530102</v>
       </c>
       <c r="J125" t="n">
-        <v>237.2921768</v>
+        <v>63.24431318000001</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>-10.11793203999999</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>-0.1599816889655087</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>TNSC00143</t>
+          <t>TB4R000100</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TDG Revenue (Conso View)</t>
+          <t>TVS Revenue</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2023014</v>
+        <v>2023021</v>
       </c>
       <c r="D126" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>201.5946657</v>
+        <v>79.48593683999999</v>
       </c>
       <c r="G126" t="n">
-        <v>295</v>
+        <v>74.40398460532771</v>
       </c>
       <c r="H126" t="n">
-        <v>0.6833717481355931</v>
+        <v>1.068302151580043</v>
       </c>
       <c r="I126" t="n">
-        <v>-93.40533430000002</v>
+        <v>5.081952234672286</v>
       </c>
       <c r="J126" t="n">
-        <v>237.2921768</v>
+        <v>53.12638114000002</v>
       </c>
       <c r="K126" t="n">
-        <v>-35.69751110000004</v>
+        <v>26.35955569999997</v>
       </c>
       <c r="L126" t="n">
-        <v>-0.1504369490026948</v>
+        <v>0.4961669726860669</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>TNSC00143</t>
+          <t>TB4R000100</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TDG Revenue (Conso View)</t>
+          <t>TVS Revenue</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2023015</v>
+        <v>2023022</v>
       </c>
       <c r="D127" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>201.5946657</v>
+        <v>168.1172614400001</v>
       </c>
       <c r="G127" t="n">
-        <v>295</v>
+        <v>195.3958100426649</v>
       </c>
       <c r="H127" t="n">
-        <v>0.6833717481355931</v>
+        <v>0.8603933799977161</v>
       </c>
       <c r="I127" t="n">
-        <v>-93.40533430000002</v>
+        <v>-27.27854860266476</v>
       </c>
       <c r="J127" t="n">
-        <v>201.5946657</v>
+        <v>79.48593683999999</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>88.63132460000014</v>
       </c>
       <c r="L127" t="n">
-        <v>0</v>
+        <v>1.115056676986889</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>TNSC00143</t>
+          <t>TB4R000100</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TDG Revenue (Conso View)</t>
+          <t>TVS Revenue</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2023016</v>
+        <v>2023023</v>
       </c>
       <c r="D128" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>201.5946657</v>
+        <v>11.79599309</v>
       </c>
       <c r="G128" t="n">
-        <v>295</v>
+        <v>12.00052260822073</v>
       </c>
       <c r="H128" t="n">
-        <v>0.6833717481355931</v>
+        <v>0.9829566157326658</v>
       </c>
       <c r="I128" t="n">
-        <v>-93.40533430000002</v>
+        <v>-0.2045295182207383</v>
       </c>
       <c r="J128" t="n">
-        <v>201.5946657</v>
+        <v>168.1172614400001</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>-156.3212683500001</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>-0.9298347297061468</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>TNSC00143</t>
+          <t>TB4R000100</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TDG Revenue (Conso View)</t>
+          <t>TVS Revenue</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2023017</v>
+        <v>2023024</v>
       </c>
       <c r="D129" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>201.5946657</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>295</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0.6833717481355931</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="n">
-        <v>-93.40533430000002</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>201.5946657</v>
+        <v>11.79599309</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>-11.79599309</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130">
@@ -6079,10 +6067,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2023018</v>
+        <v>2023010</v>
       </c>
       <c r="D130" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6090,26 +6078,20 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>259</v>
+        <v>237.2921768</v>
       </c>
       <c r="G130" t="n">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="H130" t="n">
-        <v>0.9316546762589928</v>
+        <v>0.8239311694444446</v>
       </c>
       <c r="I130" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J130" t="n">
-        <v>201.5946657</v>
-      </c>
-      <c r="K130" t="n">
-        <v>57.40533430000002</v>
-      </c>
-      <c r="L130" t="n">
-        <v>0.2847562166422939</v>
-      </c>
+        <v>-50.70782319999998</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -6123,10 +6105,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2023019</v>
+        <v>2023011</v>
       </c>
       <c r="D131" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -6134,25 +6116,25 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>258</v>
+        <v>237.2921768</v>
       </c>
       <c r="G131" t="n">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="H131" t="n">
-        <v>0.9280575539568345</v>
+        <v>0.8239311694444446</v>
       </c>
       <c r="I131" t="n">
-        <v>-20</v>
+        <v>-50.70782319999998</v>
       </c>
       <c r="J131" t="n">
-        <v>259</v>
+        <v>237.2921768</v>
       </c>
       <c r="K131" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>-0.003861003861003853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -6167,10 +6149,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2023020</v>
+        <v>2023012</v>
       </c>
       <c r="D132" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -6178,19 +6160,19 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>258</v>
+        <v>237.2921768</v>
       </c>
       <c r="G132" t="n">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="H132" t="n">
-        <v>0.9280575539568345</v>
+        <v>0.8239311694444446</v>
       </c>
       <c r="I132" t="n">
-        <v>-20</v>
+        <v>-50.70782319999998</v>
       </c>
       <c r="J132" t="n">
-        <v>258</v>
+        <v>237.2921768</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
@@ -6211,10 +6193,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2023021</v>
+        <v>2023013</v>
       </c>
       <c r="D133" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6222,19 +6204,19 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>258</v>
+        <v>237.2921768</v>
       </c>
       <c r="G133" t="n">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="H133" t="n">
-        <v>0.9280575539568345</v>
+        <v>0.8239311694444446</v>
       </c>
       <c r="I133" t="n">
-        <v>-20</v>
+        <v>-50.70782319999998</v>
       </c>
       <c r="J133" t="n">
-        <v>258</v>
+        <v>237.2921768</v>
       </c>
       <c r="K133" t="n">
         <v>0</v>
@@ -6255,10 +6237,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>2023022</v>
+        <v>2023014</v>
       </c>
       <c r="D134" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -6266,25 +6248,25 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>252</v>
+        <v>201.5946657</v>
       </c>
       <c r="G134" t="n">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="H134" t="n">
-        <v>0.9064748201438849</v>
+        <v>0.6833717481355931</v>
       </c>
       <c r="I134" t="n">
-        <v>-26</v>
+        <v>-93.40533430000002</v>
       </c>
       <c r="J134" t="n">
-        <v>258</v>
+        <v>237.2921768</v>
       </c>
       <c r="K134" t="n">
-        <v>-6</v>
+        <v>-35.69751110000004</v>
       </c>
       <c r="L134" t="n">
-        <v>-0.02325581395348841</v>
+        <v>-0.1504369490026948</v>
       </c>
     </row>
     <row r="135">
@@ -6299,35 +6281,387 @@
         </is>
       </c>
       <c r="C135" t="n">
+        <v>2023015</v>
+      </c>
+      <c r="D135" t="n">
+        <v>15</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>201.5946657</v>
+      </c>
+      <c r="G135" t="n">
+        <v>295</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.6833717481355931</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-93.40533430000002</v>
+      </c>
+      <c r="J135" t="n">
+        <v>201.5946657</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>TNSC00143</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>TDG Revenue (Conso View)</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>2023016</v>
+      </c>
+      <c r="D136" t="n">
+        <v>16</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>201.5946657</v>
+      </c>
+      <c r="G136" t="n">
+        <v>295</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.6833717481355931</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-93.40533430000002</v>
+      </c>
+      <c r="J136" t="n">
+        <v>201.5946657</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>TNSC00143</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>TDG Revenue (Conso View)</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>2023017</v>
+      </c>
+      <c r="D137" t="n">
+        <v>17</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>201.5946657</v>
+      </c>
+      <c r="G137" t="n">
+        <v>295</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.6833717481355931</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-93.40533430000002</v>
+      </c>
+      <c r="J137" t="n">
+        <v>201.5946657</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>TNSC00143</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>TDG Revenue (Conso View)</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>2023018</v>
+      </c>
+      <c r="D138" t="n">
+        <v>18</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>259</v>
+      </c>
+      <c r="G138" t="n">
+        <v>278</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.9316546762589928</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-19</v>
+      </c>
+      <c r="J138" t="n">
+        <v>201.5946657</v>
+      </c>
+      <c r="K138" t="n">
+        <v>57.40533430000002</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.2847562166422939</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>TNSC00143</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>TDG Revenue (Conso View)</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>2023019</v>
+      </c>
+      <c r="D139" t="n">
+        <v>19</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>258</v>
+      </c>
+      <c r="G139" t="n">
+        <v>278</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.9280575539568345</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-20</v>
+      </c>
+      <c r="J139" t="n">
+        <v>259</v>
+      </c>
+      <c r="K139" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>-0.003861003861003853</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>TNSC00143</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>TDG Revenue (Conso View)</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>2023020</v>
+      </c>
+      <c r="D140" t="n">
+        <v>20</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>258</v>
+      </c>
+      <c r="G140" t="n">
+        <v>278</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.9280575539568345</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-20</v>
+      </c>
+      <c r="J140" t="n">
+        <v>258</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>TNSC00143</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>TDG Revenue (Conso View)</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>2023021</v>
+      </c>
+      <c r="D141" t="n">
+        <v>21</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>258</v>
+      </c>
+      <c r="G141" t="n">
+        <v>278</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.9280575539568345</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-20</v>
+      </c>
+      <c r="J141" t="n">
+        <v>258</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>TNSC00143</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>TDG Revenue (Conso View)</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>2023022</v>
+      </c>
+      <c r="D142" t="n">
+        <v>22</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>252</v>
+      </c>
+      <c r="G142" t="n">
+        <v>278</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.9064748201438849</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-26</v>
+      </c>
+      <c r="J142" t="n">
+        <v>258</v>
+      </c>
+      <c r="K142" t="n">
+        <v>-6</v>
+      </c>
+      <c r="L142" t="n">
+        <v>-0.02325581395348841</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>TNSC00143</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>TDG Revenue (Conso View)</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
         <v>2023023</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D143" t="n">
         <v>23</v>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F135" t="n">
+      <c r="F143" t="n">
         <v>256</v>
       </c>
-      <c r="G135" t="n">
+      <c r="G143" t="n">
         <v>254</v>
       </c>
-      <c r="H135" t="n">
+      <c r="H143" t="n">
         <v>1.007874015748031</v>
       </c>
-      <c r="I135" t="n">
+      <c r="I143" t="n">
         <v>2</v>
       </c>
-      <c r="J135" t="n">
+      <c r="J143" t="n">
         <v>252</v>
       </c>
-      <c r="K135" t="n">
+      <c r="K143" t="n">
         <v>4</v>
       </c>
-      <c r="L135" t="n">
+      <c r="L143" t="n">
         <v>0.01587301587301582</v>
       </c>
     </row>
